--- a/src/sourcefiles/Ashram-Donors.xlsx
+++ b/src/sourcefiles/Ashram-Donors.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\GitManaVaikhanasam\src\sourcefiles\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="48" windowWidth="19416" windowHeight="8136"/>
   </bookViews>
@@ -12,14 +17,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$H$207</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$H$208</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="584">
   <si>
     <t>NAME</t>
   </si>
@@ -1068,9 +1073,6 @@
     <t>₹ 20,000</t>
   </si>
   <si>
-    <t>₹ 16,116</t>
-  </si>
-  <si>
     <t>₹ 15,000</t>
   </si>
   <si>
@@ -1137,9 +1139,6 @@
     <t>₹ 1,016</t>
   </si>
   <si>
-    <t>₹ 1,011</t>
-  </si>
-  <si>
     <t>₹ 1,001</t>
   </si>
   <si>
@@ -1173,9 +1172,6 @@
     <t>RadhaKrishna Murty</t>
   </si>
   <si>
-    <t>₹ 500</t>
-  </si>
-  <si>
     <t>2/43</t>
   </si>
   <si>
@@ -1222,14 +1218,573 @@
   </si>
   <si>
     <t>Shri. Dr.</t>
+  </si>
+  <si>
+    <t>11/17/2019</t>
+  </si>
+  <si>
+    <t>12/282</t>
+  </si>
+  <si>
+    <t>₹ 41,116</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>₹ 30,116</t>
+  </si>
+  <si>
+    <t>12/277, 12/278</t>
+  </si>
+  <si>
+    <t>12/280</t>
+  </si>
+  <si>
+    <t>Venkata Krishma Murty</t>
+  </si>
+  <si>
+    <t>12/276</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>12/279</t>
+  </si>
+  <si>
+    <t>12/281</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="&quot;₹&quot;\ #,##0"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -1340,7 +1895,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1429,19 +1984,25 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1453,6 +2014,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1501,7 +2065,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1536,7 +2100,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1745,10 +2309,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H207"/>
+  <dimension ref="A1:H343"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
+      <selection activeCell="F205" sqref="F205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -1758,9 +2322,9 @@
     <col min="3" max="3" width="17.77734375" style="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="80.5546875" style="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.88671875" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="36" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.77734375" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.77734375" style="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -1779,7 +2343,7 @@
       <c r="E1" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="35" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="30" t="s">
@@ -1794,7 +2358,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>114</v>
@@ -1805,7 +2369,7 @@
       <c r="E2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="33" t="s">
         <v>335</v>
       </c>
       <c r="G2" s="14"/>
@@ -1827,7 +2391,7 @@
       <c r="E3" s="14" t="s">
         <v>334</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="33" t="s">
         <v>336</v>
       </c>
       <c r="G3" s="14"/>
@@ -1849,7 +2413,7 @@
       <c r="E4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="33" t="s">
         <v>337</v>
       </c>
       <c r="G4" s="7"/>
@@ -1871,7 +2435,7 @@
       <c r="E5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="33" t="s">
         <v>338</v>
       </c>
       <c r="G5" s="7"/>
@@ -1893,7 +2457,7 @@
       <c r="E6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="33" t="s">
         <v>339</v>
       </c>
       <c r="G6" s="7"/>
@@ -1915,7 +2479,7 @@
       <c r="E7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="33" t="s">
         <v>340</v>
       </c>
       <c r="G7" s="7"/>
@@ -1937,7 +2501,7 @@
       <c r="E8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="F8" s="33" t="s">
         <v>340</v>
       </c>
       <c r="G8" s="7"/>
@@ -1959,7 +2523,7 @@
       <c r="E9" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="33" t="s">
         <v>340</v>
       </c>
       <c r="G9" s="7"/>
@@ -1979,7 +2543,7 @@
       <c r="E10" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="F10" s="33" t="s">
         <v>340</v>
       </c>
       <c r="G10" s="7"/>
@@ -2001,7 +2565,7 @@
       <c r="E11" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="33" t="s">
         <v>340</v>
       </c>
       <c r="G11" s="7"/>
@@ -2012,7 +2576,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>121</v>
@@ -2023,7 +2587,7 @@
       <c r="E12" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="F12" s="33" t="s">
         <v>340</v>
       </c>
       <c r="G12" s="7"/>
@@ -2045,7 +2609,7 @@
       <c r="E13" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="F13" s="33" t="s">
         <v>340</v>
       </c>
       <c r="G13" s="7"/>
@@ -2056,7 +2620,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>123</v>
@@ -2067,7 +2631,7 @@
       <c r="E14" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="F14" s="32" t="s">
+      <c r="F14" s="33" t="s">
         <v>340</v>
       </c>
       <c r="G14" s="7"/>
@@ -2078,7 +2642,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>119</v>
@@ -2089,7 +2653,7 @@
       <c r="E15" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="32" t="s">
+      <c r="F15" s="33" t="s">
         <v>341</v>
       </c>
       <c r="G15" s="7" t="s">
@@ -2115,7 +2679,7 @@
       <c r="E16" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="F16" s="32" t="s">
+      <c r="F16" s="33" t="s">
         <v>342</v>
       </c>
       <c r="G16" s="7"/>
@@ -2137,7 +2701,7 @@
       <c r="E17" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="32" t="s">
+      <c r="F17" s="33" t="s">
         <v>342</v>
       </c>
       <c r="G17" s="7"/>
@@ -2159,7 +2723,7 @@
       <c r="E18" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="32" t="s">
+      <c r="F18" s="33" t="s">
         <v>343</v>
       </c>
       <c r="G18" s="7" t="s">
@@ -2185,7 +2749,7 @@
       <c r="E19" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="F19" s="32" t="s">
+      <c r="F19" s="33" t="s">
         <v>344</v>
       </c>
       <c r="G19" s="7"/>
@@ -2207,7 +2771,7 @@
       <c r="E20" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="32" t="s">
+      <c r="F20" s="33" t="s">
         <v>344</v>
       </c>
       <c r="G20" s="7"/>
@@ -2229,7 +2793,7 @@
       <c r="E21" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="32" t="s">
+      <c r="F21" s="33" t="s">
         <v>344</v>
       </c>
       <c r="G21" s="7"/>
@@ -2251,7 +2815,7 @@
       <c r="E22" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="32" t="s">
+      <c r="F22" s="33" t="s">
         <v>344</v>
       </c>
       <c r="G22" s="7"/>
@@ -2273,7 +2837,7 @@
       <c r="E23" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="32" t="s">
+      <c r="F23" s="33" t="s">
         <v>344</v>
       </c>
       <c r="G23" s="7"/>
@@ -2295,7 +2859,7 @@
       <c r="E24" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F24" s="32" t="s">
+      <c r="F24" s="33" t="s">
         <v>344</v>
       </c>
       <c r="G24" s="7"/>
@@ -2317,7 +2881,7 @@
       <c r="E25" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="F25" s="32" t="s">
+      <c r="F25" s="33" t="s">
         <v>344</v>
       </c>
       <c r="G25" s="7"/>
@@ -2328,7 +2892,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>114</v>
@@ -2339,7 +2903,7 @@
       <c r="E26" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="F26" s="32" t="s">
+      <c r="F26" s="33" t="s">
         <v>344</v>
       </c>
       <c r="G26" s="7"/>
@@ -2361,7 +2925,7 @@
       <c r="E27" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F27" s="32" t="s">
+      <c r="F27" s="33" t="s">
         <v>344</v>
       </c>
       <c r="G27" s="7"/>
@@ -2383,7 +2947,7 @@
       <c r="E28" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F28" s="32" t="s">
+      <c r="F28" s="33" t="s">
         <v>344</v>
       </c>
       <c r="G28" s="7"/>
@@ -2405,473 +2969,477 @@
       <c r="E29" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="F29" s="32" t="s">
+      <c r="F29" s="33" t="s">
         <v>344</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="24"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="16">
-        <v>29</v>
+      <c r="A30" s="16" t="s">
+        <v>401</v>
       </c>
       <c r="B30" s="16" t="s">
         <v>297</v>
       </c>
       <c r="C30" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="33" t="s">
+        <v>400</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="H30" s="24" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="C31" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D31" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="E31" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F30" s="32" t="s">
+      <c r="F31" s="33" t="s">
         <v>345</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="H30" s="24" t="s">
+      <c r="H31" s="24" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="16">
-        <v>30</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C31" s="16" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F32" s="33" t="s">
+        <v>576</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="H32" s="24" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="C33" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D33" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="E33" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="32" t="s">
-        <v>346</v>
-      </c>
-      <c r="G31" s="7"/>
-      <c r="H31" s="24"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="16">
-        <v>31</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="F32" s="32" t="s">
-        <v>346</v>
-      </c>
-      <c r="G32" s="7"/>
-      <c r="H32" s="24"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="16">
-        <v>32</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F33" s="32" t="s">
+      <c r="F33" s="33" t="s">
         <v>346</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="24"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="16">
-        <v>33</v>
+      <c r="A34" s="16" t="s">
+        <v>405</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>297</v>
+        <v>397</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>157</v>
+        <v>218</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F34" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="F34" s="33" t="s">
         <v>346</v>
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="24"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="16">
-        <v>34</v>
+      <c r="A35" s="16" t="s">
+        <v>406</v>
       </c>
       <c r="B35" s="16" t="s">
         <v>297</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>158</v>
+        <v>246</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F35" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" s="33" t="s">
         <v>346</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="24"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="16">
-        <v>35</v>
+      <c r="A36" s="16" t="s">
+        <v>407</v>
       </c>
       <c r="B36" s="16" t="s">
         <v>297</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>308</v>
+        <v>157</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="F36" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="33" t="s">
         <v>346</v>
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="24"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="16">
-        <v>36</v>
+      <c r="A37" s="16" t="s">
+        <v>408</v>
       </c>
       <c r="B37" s="16" t="s">
         <v>297</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>314</v>
+        <v>158</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F37" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="33" t="s">
         <v>346</v>
       </c>
-      <c r="G37" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="H37" s="24" t="s">
-        <v>398</v>
-      </c>
+      <c r="G37" s="7"/>
+      <c r="H37" s="24"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="16">
-        <v>37</v>
+      <c r="A38" s="16" t="s">
+        <v>409</v>
       </c>
       <c r="B38" s="16" t="s">
         <v>297</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>247</v>
+        <v>308</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F38" s="32" t="s">
-        <v>347</v>
+        <v>67</v>
+      </c>
+      <c r="F38" s="33" t="s">
+        <v>346</v>
       </c>
       <c r="G38" s="7"/>
       <c r="H38" s="24"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" s="16">
-        <v>38</v>
+      <c r="A39" s="16" t="s">
+        <v>410</v>
       </c>
       <c r="B39" s="16" t="s">
         <v>297</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>182</v>
+        <v>314</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F39" s="32" t="s">
-        <v>348</v>
-      </c>
-      <c r="G39" s="7"/>
-      <c r="H39" s="24"/>
+        <v>39</v>
+      </c>
+      <c r="F39" s="33" t="s">
+        <v>346</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="H39" s="24" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="16">
-        <v>39</v>
+      <c r="A40" s="16" t="s">
+        <v>411</v>
       </c>
       <c r="B40" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="C40" s="16"/>
+      <c r="C40" s="16" t="s">
+        <v>132</v>
+      </c>
       <c r="D40" s="7" t="s">
-        <v>79</v>
+        <v>247</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F40" s="32" t="s">
-        <v>348</v>
+        <v>44</v>
+      </c>
+      <c r="F40" s="33" t="s">
+        <v>347</v>
       </c>
       <c r="G40" s="7"/>
       <c r="H40" s="24"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" s="16">
-        <v>40</v>
+      <c r="A41" s="16" t="s">
+        <v>412</v>
       </c>
       <c r="B41" s="16" t="s">
         <v>297</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="F41" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" s="33" t="s">
         <v>348</v>
       </c>
       <c r="G41" s="7"/>
       <c r="H41" s="24"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" s="16">
-        <v>41</v>
+      <c r="A42" s="16" t="s">
+        <v>413</v>
       </c>
       <c r="B42" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="C42" s="16" t="s">
-        <v>114</v>
-      </c>
+      <c r="C42" s="16"/>
       <c r="D42" s="7" t="s">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="F42" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" s="33" t="s">
         <v>348</v>
       </c>
       <c r="G42" s="7"/>
       <c r="H42" s="24"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" s="16">
-        <v>42</v>
+      <c r="A43" s="16" t="s">
+        <v>414</v>
       </c>
       <c r="B43" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="C43" s="19" t="s">
-        <v>132</v>
+      <c r="C43" s="16" t="s">
+        <v>124</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>243</v>
+        <v>188</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F43" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F43" s="33" t="s">
         <v>348</v>
       </c>
       <c r="G43" s="7"/>
       <c r="H43" s="24"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" s="16">
-        <v>43</v>
+      <c r="A44" s="16" t="s">
+        <v>415</v>
       </c>
       <c r="B44" s="16" t="s">
         <v>297</v>
       </c>
       <c r="C44" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F44" s="33" t="s">
+        <v>348</v>
+      </c>
+      <c r="G44" s="7"/>
+      <c r="H44" s="24"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F45" s="33" t="s">
+        <v>348</v>
+      </c>
+      <c r="G45" s="7"/>
+      <c r="H45" s="24"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="C46" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D46" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="E44" s="13" t="s">
+      <c r="E46" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F44" s="32" t="s">
+      <c r="F46" s="33" t="s">
         <v>348</v>
       </c>
-      <c r="G44" s="7" t="s">
+      <c r="G46" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="H44" s="24" t="s">
+      <c r="H46" s="24" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A45" s="16">
-        <v>44</v>
-      </c>
-      <c r="B45" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C45" s="19" t="s">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A47" s="16" t="s">
+        <v>418</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="C47" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D47" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="E45" s="13" t="s">
+      <c r="E47" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F45" s="32" t="s">
+      <c r="F47" s="33" t="s">
         <v>348</v>
       </c>
-      <c r="G45" s="7" t="s">
+      <c r="G47" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="H45" s="24" t="s">
+      <c r="H47" s="24" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A46" s="16">
-        <v>45</v>
-      </c>
-      <c r="B46" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C46" s="16" t="s">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="C48" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D48" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="E46" s="13" t="s">
+      <c r="E48" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F46" s="32" t="s">
+      <c r="F48" s="33" t="s">
         <v>348</v>
       </c>
-      <c r="G46" s="7"/>
-      <c r="H46" s="24"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A47" s="16">
-        <v>46</v>
-      </c>
-      <c r="B47" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C47" s="16" t="s">
+      <c r="G48" s="7"/>
+      <c r="H48" s="24"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A49" s="16" t="s">
+        <v>420</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="C49" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="D47" s="12" t="s">
+      <c r="D49" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="E47" s="12" t="s">
+      <c r="E49" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F47" s="32" t="s">
+      <c r="F49" s="33" t="s">
         <v>348</v>
-      </c>
-      <c r="G47" s="7"/>
-      <c r="H47" s="24"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A48" s="16">
-        <v>47</v>
-      </c>
-      <c r="B48" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="E48" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F48" s="32" t="s">
-        <v>348</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="H48" s="24" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A49" s="16">
-        <v>48</v>
-      </c>
-      <c r="B49" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="E49" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F49" s="32" t="s">
-        <v>349</v>
       </c>
       <c r="G49" s="7"/>
       <c r="H49" s="24"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A50" s="16">
-        <v>49</v>
+      <c r="A50" s="16" t="s">
+        <v>421</v>
       </c>
       <c r="B50" s="16" t="s">
         <v>297</v>
@@ -2879,21 +3447,25 @@
       <c r="C50" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="D50" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="E50" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="F50" s="32" t="s">
-        <v>350</v>
-      </c>
-      <c r="G50" s="7"/>
-      <c r="H50" s="24"/>
+      <c r="D50" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F50" s="33" t="s">
+        <v>348</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="H50" s="24" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A51" s="16">
-        <v>50</v>
+      <c r="A51" s="16" t="s">
+        <v>422</v>
       </c>
       <c r="B51" s="16" t="s">
         <v>297</v>
@@ -2901,397 +3473,403 @@
       <c r="C51" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="D51" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="E51" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F51" s="32" t="s">
-        <v>351</v>
+      <c r="D51" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="F51" s="33" t="s">
+        <v>349</v>
       </c>
       <c r="G51" s="7"/>
       <c r="H51" s="24"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A52" s="16">
-        <v>51</v>
+      <c r="A52" s="16" t="s">
+        <v>423</v>
       </c>
       <c r="B52" s="16" t="s">
         <v>297</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="32" t="s">
-        <v>352</v>
+        <v>11</v>
+      </c>
+      <c r="F52" s="33" t="s">
+        <v>350</v>
       </c>
       <c r="G52" s="7"/>
       <c r="H52" s="24"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A53" s="16">
-        <v>52</v>
-      </c>
-      <c r="B53" s="16" t="s">
+      <c r="A53" s="16" t="s">
+        <v>424</v>
+      </c>
+      <c r="B53" s="19" t="s">
         <v>297</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="E53" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F53" s="32" t="s">
-        <v>352</v>
-      </c>
-      <c r="G53" s="7"/>
-      <c r="H53" s="24"/>
+        <v>124</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F53" s="33">
+        <v>10500</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="H53" s="24" t="s">
+        <v>578</v>
+      </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A54" s="16">
-        <v>53</v>
+      <c r="A54" s="16" t="s">
+        <v>425</v>
       </c>
       <c r="B54" s="16" t="s">
         <v>297</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>236</v>
+        <v>159</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F54" s="32" t="s">
-        <v>352</v>
+        <v>5</v>
+      </c>
+      <c r="F54" s="33" t="s">
+        <v>351</v>
       </c>
       <c r="G54" s="7"/>
       <c r="H54" s="24"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A55" s="16">
-        <v>54</v>
+      <c r="A55" s="16" t="s">
+        <v>426</v>
       </c>
       <c r="B55" s="16" t="s">
         <v>297</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F55" s="32" t="s">
-        <v>352</v>
+        <v>24</v>
+      </c>
+      <c r="F55" s="33" t="s">
+        <v>351</v>
       </c>
       <c r="G55" s="7"/>
       <c r="H55" s="24"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A56" s="16">
-        <v>55</v>
+      <c r="A56" s="16" t="s">
+        <v>427</v>
       </c>
       <c r="B56" s="16" t="s">
         <v>297</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F56" s="32" t="s">
-        <v>352</v>
+        <v>10</v>
+      </c>
+      <c r="F56" s="33" t="s">
+        <v>351</v>
       </c>
       <c r="G56" s="7"/>
       <c r="H56" s="24"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A57" s="16">
-        <v>56</v>
+      <c r="A57" s="16" t="s">
+        <v>428</v>
       </c>
       <c r="B57" s="16" t="s">
         <v>297</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F57" s="32" t="s">
-        <v>352</v>
+        <v>19</v>
+      </c>
+      <c r="F57" s="33" t="s">
+        <v>351</v>
       </c>
       <c r="G57" s="7"/>
       <c r="H57" s="24"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A58" s="16">
-        <v>57</v>
+      <c r="A58" s="16" t="s">
+        <v>429</v>
       </c>
       <c r="B58" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="C58" s="16"/>
+      <c r="C58" s="16" t="s">
+        <v>114</v>
+      </c>
       <c r="D58" s="7" t="s">
-        <v>80</v>
+        <v>248</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F58" s="32" t="s">
-        <v>352</v>
+        <v>25</v>
+      </c>
+      <c r="F58" s="33" t="s">
+        <v>351</v>
       </c>
       <c r="G58" s="7"/>
       <c r="H58" s="24"/>
     </row>
-    <row r="59" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="16">
-        <v>58</v>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A59" s="16" t="s">
+        <v>430</v>
       </c>
       <c r="B59" s="16" t="s">
         <v>297</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>237</v>
+        <v>165</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="F59" s="32" t="s">
-        <v>352</v>
+        <v>26</v>
+      </c>
+      <c r="F59" s="33" t="s">
+        <v>351</v>
       </c>
       <c r="G59" s="7"/>
       <c r="H59" s="24"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A60" s="16">
-        <v>59</v>
+      <c r="A60" s="16" t="s">
+        <v>431</v>
       </c>
       <c r="B60" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="C60" s="19" t="s">
-        <v>134</v>
-      </c>
+      <c r="C60" s="16"/>
       <c r="D60" s="7" t="s">
-        <v>288</v>
+        <v>80</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F60" s="32" t="s">
-        <v>352</v>
+        <v>43</v>
+      </c>
+      <c r="F60" s="33" t="s">
+        <v>351</v>
       </c>
       <c r="G60" s="7"/>
       <c r="H60" s="24"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A61" s="16">
-        <v>60</v>
-      </c>
-      <c r="B61" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="C61" s="19" t="s">
-        <v>114</v>
+    <row r="61" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="16" t="s">
+        <v>432</v>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>129</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>289</v>
+        <v>237</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F61" s="32" t="s">
-        <v>352</v>
+        <v>81</v>
+      </c>
+      <c r="F61" s="33" t="s">
+        <v>351</v>
       </c>
       <c r="G61" s="7"/>
       <c r="H61" s="24"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A62" s="16">
-        <v>61</v>
-      </c>
-      <c r="B62" s="19" t="s">
+      <c r="A62" s="16" t="s">
+        <v>433</v>
+      </c>
+      <c r="B62" s="16" t="s">
         <v>297</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E62" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F62" s="32" t="s">
-        <v>352</v>
-      </c>
-      <c r="G62" s="31"/>
-      <c r="H62" s="25"/>
+        <v>39</v>
+      </c>
+      <c r="F62" s="33" t="s">
+        <v>351</v>
+      </c>
+      <c r="G62" s="7"/>
+      <c r="H62" s="24"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A63" s="16">
-        <v>62</v>
+      <c r="A63" s="16" t="s">
+        <v>434</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>297</v>
+        <v>220</v>
       </c>
       <c r="C63" s="19" t="s">
         <v>114</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E63" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F63" s="32" t="s">
-        <v>352</v>
+        <v>39</v>
+      </c>
+      <c r="F63" s="33" t="s">
+        <v>351</v>
       </c>
       <c r="G63" s="7"/>
       <c r="H63" s="24"/>
     </row>
-    <row r="64" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="16">
-        <v>63</v>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A64" s="16" t="s">
+        <v>435</v>
       </c>
       <c r="B64" s="19" t="s">
         <v>297</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>295</v>
+        <v>128</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E64" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F64" s="32" t="s">
-        <v>352</v>
-      </c>
-      <c r="G64" s="7"/>
-      <c r="H64" s="24"/>
+        <v>21</v>
+      </c>
+      <c r="F64" s="33" t="s">
+        <v>351</v>
+      </c>
+      <c r="G64" s="31"/>
+      <c r="H64" s="25"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A65" s="16">
-        <v>64</v>
+      <c r="A65" s="16" t="s">
+        <v>436</v>
       </c>
       <c r="B65" s="19" t="s">
         <v>297</v>
       </c>
-      <c r="C65" s="28" t="s">
+      <c r="C65" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="D65" s="21" t="s">
-        <v>306</v>
-      </c>
-      <c r="E65" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="F65" s="32" t="s">
-        <v>352</v>
+      <c r="D65" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F65" s="33" t="s">
+        <v>351</v>
       </c>
       <c r="G65" s="7"/>
       <c r="H65" s="24"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A66" s="16">
-        <v>65</v>
-      </c>
-      <c r="B66" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C66" s="16" t="s">
+    <row r="66" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="B66" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="C66" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F66" s="33" t="s">
+        <v>351</v>
+      </c>
+      <c r="G66" s="7"/>
+      <c r="H66" s="24"/>
+    </row>
+    <row r="67" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="B67" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="C67" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="E67" s="13"/>
+      <c r="F67" s="33" t="s">
+        <v>351</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="H67" s="24" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A68" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="B68" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="C68" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="D66" s="12" t="s">
+      <c r="D68" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="F68" s="33" t="s">
+        <v>386</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="H68" s="24" t="s">
         <v>387</v>
       </c>
-      <c r="E66" s="12" t="s">
-        <v>388</v>
-      </c>
-      <c r="F66" s="32" t="s">
-        <v>389</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="H66" s="24" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A67" s="16">
-        <v>66</v>
-      </c>
-      <c r="B67" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="C67" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="E67" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F67" s="32" t="s">
-        <v>353</v>
-      </c>
-      <c r="G67" s="7"/>
-      <c r="H67" s="24"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A68" s="16">
-        <v>67</v>
-      </c>
-      <c r="B68" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="C68" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="E68" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="F68" s="32" t="s">
-        <v>354</v>
-      </c>
-      <c r="G68" s="11"/>
-      <c r="H68" s="23"/>
-    </row>
-    <row r="69" spans="1:8" ht="36" x14ac:dyDescent="0.35">
-      <c r="A69" s="16">
-        <v>68</v>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A69" s="16" t="s">
+        <v>440</v>
       </c>
       <c r="B69" s="19" t="s">
         <v>297</v>
@@ -3299,767 +3877,767 @@
       <c r="C69" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="D69" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="E69" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="F69" s="32" t="s">
-        <v>354</v>
+      <c r="D69" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F69" s="33" t="s">
+        <v>352</v>
       </c>
       <c r="G69" s="7"/>
       <c r="H69" s="24"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A70" s="16">
-        <v>69</v>
+      <c r="A70" s="16" t="s">
+        <v>441</v>
       </c>
       <c r="B70" s="19" t="s">
         <v>297</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F70" s="32" t="s">
-        <v>354</v>
-      </c>
-      <c r="G70" s="7"/>
-      <c r="H70" s="24"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A71" s="16">
-        <v>70</v>
+        <v>82</v>
+      </c>
+      <c r="F70" s="33" t="s">
+        <v>353</v>
+      </c>
+      <c r="G70" s="11"/>
+      <c r="H70" s="23"/>
+    </row>
+    <row r="71" spans="1:8" ht="36" x14ac:dyDescent="0.35">
+      <c r="A71" s="16" t="s">
+        <v>442</v>
       </c>
       <c r="B71" s="19" t="s">
         <v>297</v>
       </c>
-      <c r="C71" s="16"/>
-      <c r="D71" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E71" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F71" s="32" t="s">
-        <v>354</v>
+      <c r="C71" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F71" s="33" t="s">
+        <v>353</v>
       </c>
       <c r="G71" s="7"/>
       <c r="H71" s="24"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A72" s="16">
-        <v>71</v>
+      <c r="A72" s="16" t="s">
+        <v>443</v>
       </c>
       <c r="B72" s="19" t="s">
         <v>297</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>238</v>
+        <v>153</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F72" s="32" t="s">
-        <v>355</v>
+        <v>5</v>
+      </c>
+      <c r="F72" s="33" t="s">
+        <v>353</v>
       </c>
       <c r="G72" s="7"/>
       <c r="H72" s="24"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A73" s="16">
+      <c r="A73" s="16" t="s">
+        <v>444</v>
+      </c>
+      <c r="B73" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="C73" s="16"/>
+      <c r="D73" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E73" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B73" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="C73" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="D73" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F73" s="32" t="s">
-        <v>355</v>
+      <c r="F73" s="33" t="s">
+        <v>353</v>
       </c>
       <c r="G73" s="7"/>
       <c r="H73" s="24"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A74" s="16">
-        <v>73</v>
+      <c r="A74" s="16" t="s">
+        <v>445</v>
       </c>
       <c r="B74" s="19" t="s">
         <v>297</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>94</v>
+        <v>238</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F74" s="32" t="s">
-        <v>355</v>
+        <v>19</v>
+      </c>
+      <c r="F74" s="33" t="s">
+        <v>354</v>
       </c>
       <c r="G74" s="7"/>
       <c r="H74" s="24"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A75" s="16">
-        <v>74</v>
+      <c r="A75" s="16" t="s">
+        <v>446</v>
       </c>
       <c r="B75" s="19" t="s">
         <v>297</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>250</v>
+        <v>94</v>
       </c>
       <c r="E75" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F75" s="32" t="s">
-        <v>355</v>
+        <v>28</v>
+      </c>
+      <c r="F75" s="33" t="s">
+        <v>354</v>
       </c>
       <c r="G75" s="7"/>
       <c r="H75" s="24"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A76" s="16">
-        <v>75</v>
-      </c>
-      <c r="B76" s="16" t="s">
-        <v>220</v>
+      <c r="A76" s="16" t="s">
+        <v>447</v>
+      </c>
+      <c r="B76" s="19" t="s">
+        <v>297</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="E76" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F76" s="32" t="s">
-        <v>355</v>
+        <v>25</v>
+      </c>
+      <c r="F76" s="33" t="s">
+        <v>354</v>
       </c>
       <c r="G76" s="7"/>
       <c r="H76" s="24"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A77" s="16">
-        <v>76</v>
+      <c r="A77" s="16" t="s">
+        <v>448</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>297</v>
+        <v>220</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>154</v>
+        <v>221</v>
       </c>
       <c r="E77" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F77" s="32" t="s">
-        <v>355</v>
+        <v>29</v>
+      </c>
+      <c r="F77" s="33" t="s">
+        <v>354</v>
       </c>
       <c r="G77" s="7"/>
       <c r="H77" s="24"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A78" s="16">
-        <v>77</v>
+      <c r="A78" s="16" t="s">
+        <v>449</v>
       </c>
       <c r="B78" s="16" t="s">
         <v>297</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>222</v>
+        <v>154</v>
       </c>
       <c r="E78" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F78" s="32" t="s">
-        <v>355</v>
+        <v>30</v>
+      </c>
+      <c r="F78" s="33" t="s">
+        <v>354</v>
       </c>
       <c r="G78" s="7"/>
       <c r="H78" s="24"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A79" s="16">
-        <v>78</v>
+      <c r="A79" s="16" t="s">
+        <v>450</v>
       </c>
       <c r="B79" s="16" t="s">
         <v>297</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>148</v>
+        <v>222</v>
       </c>
       <c r="E79" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F79" s="32" t="s">
-        <v>355</v>
+        <v>27</v>
+      </c>
+      <c r="F79" s="33" t="s">
+        <v>354</v>
       </c>
       <c r="G79" s="7"/>
       <c r="H79" s="24"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A80" s="16">
-        <v>79</v>
+      <c r="A80" s="16" t="s">
+        <v>451</v>
       </c>
       <c r="B80" s="16" t="s">
         <v>297</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="E80" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F80" s="32" t="s">
-        <v>355</v>
+        <v>31</v>
+      </c>
+      <c r="F80" s="33" t="s">
+        <v>354</v>
       </c>
       <c r="G80" s="7"/>
       <c r="H80" s="24"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A81" s="16">
-        <v>80</v>
+      <c r="A81" s="16" t="s">
+        <v>452</v>
       </c>
       <c r="B81" s="16" t="s">
         <v>297</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>206</v>
+        <v>155</v>
       </c>
       <c r="E81" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F81" s="32" t="s">
-        <v>355</v>
+        <v>32</v>
+      </c>
+      <c r="F81" s="33" t="s">
+        <v>354</v>
       </c>
       <c r="G81" s="7"/>
       <c r="H81" s="24"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A82" s="16">
-        <v>81</v>
+      <c r="A82" s="16" t="s">
+        <v>453</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>220</v>
+        <v>297</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="E82" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F82" s="32" t="s">
-        <v>355</v>
+        <v>33</v>
+      </c>
+      <c r="F82" s="33" t="s">
+        <v>354</v>
       </c>
       <c r="G82" s="7"/>
       <c r="H82" s="24"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A83" s="16">
-        <v>82</v>
+      <c r="A83" s="16" t="s">
+        <v>454</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>297</v>
+        <v>220</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="E83" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F83" s="32" t="s">
-        <v>355</v>
+        <v>4</v>
+      </c>
+      <c r="F83" s="33" t="s">
+        <v>354</v>
       </c>
       <c r="G83" s="7"/>
       <c r="H83" s="24"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A84" s="16">
-        <v>83</v>
+      <c r="A84" s="16" t="s">
+        <v>455</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>220</v>
+        <v>297</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E84" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F84" s="32" t="s">
-        <v>355</v>
+        <v>16</v>
+      </c>
+      <c r="F84" s="33" t="s">
+        <v>354</v>
       </c>
       <c r="G84" s="7"/>
       <c r="H84" s="24"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A85" s="16">
-        <v>84</v>
+      <c r="A85" s="16" t="s">
+        <v>456</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>297</v>
+        <v>220</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E85" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="F85" s="32" t="s">
-        <v>355</v>
+        <v>25</v>
+      </c>
+      <c r="F85" s="33" t="s">
+        <v>354</v>
       </c>
       <c r="G85" s="7"/>
       <c r="H85" s="24"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A86" s="16">
-        <v>85</v>
+      <c r="A86" s="16" t="s">
+        <v>457</v>
       </c>
       <c r="B86" s="16" t="s">
         <v>297</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="E86" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F86" s="32" t="s">
-        <v>355</v>
+        <v>96</v>
+      </c>
+      <c r="F86" s="33" t="s">
+        <v>354</v>
       </c>
       <c r="G86" s="7"/>
       <c r="H86" s="24"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A87" s="16">
-        <v>86</v>
+      <c r="A87" s="16" t="s">
+        <v>458</v>
       </c>
       <c r="B87" s="16" t="s">
         <v>297</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="E87" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F87" s="32" t="s">
-        <v>355</v>
+        <v>2</v>
+      </c>
+      <c r="F87" s="33" t="s">
+        <v>354</v>
       </c>
       <c r="G87" s="7"/>
       <c r="H87" s="24"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A88" s="16">
-        <v>87</v>
+      <c r="A88" s="16" t="s">
+        <v>459</v>
       </c>
       <c r="B88" s="16" t="s">
         <v>297</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E88" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F88" s="32" t="s">
-        <v>355</v>
+        <v>34</v>
+      </c>
+      <c r="F88" s="33" t="s">
+        <v>354</v>
       </c>
       <c r="G88" s="7"/>
       <c r="H88" s="24"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A89" s="16">
-        <v>88</v>
+      <c r="A89" s="16" t="s">
+        <v>460</v>
       </c>
       <c r="B89" s="16" t="s">
         <v>297</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E89" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="F89" s="32" t="s">
-        <v>355</v>
+        <v>29</v>
+      </c>
+      <c r="F89" s="33" t="s">
+        <v>354</v>
       </c>
       <c r="G89" s="7"/>
       <c r="H89" s="24"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A90" s="16">
-        <v>89</v>
+      <c r="A90" s="16" t="s">
+        <v>461</v>
       </c>
       <c r="B90" s="16" t="s">
         <v>297</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>149</v>
+        <v>257</v>
       </c>
       <c r="E90" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F90" s="32" t="s">
-        <v>355</v>
+        <v>95</v>
+      </c>
+      <c r="F90" s="33" t="s">
+        <v>354</v>
       </c>
       <c r="G90" s="7"/>
       <c r="H90" s="24"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A91" s="16">
-        <v>90</v>
+      <c r="A91" s="16" t="s">
+        <v>462</v>
       </c>
       <c r="B91" s="16" t="s">
         <v>297</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>258</v>
+        <v>149</v>
       </c>
       <c r="E91" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F91" s="32" t="s">
-        <v>355</v>
+        <v>37</v>
+      </c>
+      <c r="F91" s="33" t="s">
+        <v>354</v>
       </c>
       <c r="G91" s="7"/>
       <c r="H91" s="24"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A92" s="16">
-        <v>91</v>
+      <c r="A92" s="16" t="s">
+        <v>463</v>
       </c>
       <c r="B92" s="16" t="s">
         <v>297</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>173</v>
+        <v>258</v>
       </c>
       <c r="E92" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F92" s="32" t="s">
-        <v>355</v>
+      <c r="F92" s="33" t="s">
+        <v>354</v>
       </c>
       <c r="G92" s="7"/>
       <c r="H92" s="24"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A93" s="16">
-        <v>92</v>
+      <c r="A93" s="16" t="s">
+        <v>464</v>
       </c>
       <c r="B93" s="16" t="s">
         <v>297</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E93" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F93" s="32" t="s">
-        <v>355</v>
+        <v>10</v>
+      </c>
+      <c r="F93" s="33" t="s">
+        <v>354</v>
       </c>
       <c r="G93" s="7"/>
       <c r="H93" s="24"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A94" s="16">
-        <v>93</v>
+      <c r="A94" s="16" t="s">
+        <v>465</v>
       </c>
       <c r="B94" s="16" t="s">
         <v>297</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="E94" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F94" s="32" t="s">
-        <v>355</v>
+        <v>25</v>
+      </c>
+      <c r="F94" s="33" t="s">
+        <v>354</v>
       </c>
       <c r="G94" s="7"/>
       <c r="H94" s="24"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A95" s="16">
-        <v>94</v>
+      <c r="A95" s="16" t="s">
+        <v>466</v>
       </c>
       <c r="B95" s="16" t="s">
         <v>297</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="E95" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F95" s="32" t="s">
-        <v>355</v>
+        <v>39</v>
+      </c>
+      <c r="F95" s="33" t="s">
+        <v>354</v>
       </c>
       <c r="G95" s="7"/>
       <c r="H95" s="24"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A96" s="16">
-        <v>95</v>
+      <c r="A96" s="16" t="s">
+        <v>467</v>
       </c>
       <c r="B96" s="16" t="s">
         <v>297</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>259</v>
+        <v>125</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>260</v>
+        <v>189</v>
       </c>
       <c r="E96" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F96" s="32" t="s">
-        <v>355</v>
+        <v>40</v>
+      </c>
+      <c r="F96" s="33" t="s">
+        <v>354</v>
       </c>
       <c r="G96" s="7"/>
       <c r="H96" s="24"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A97" s="16">
-        <v>96</v>
+      <c r="A97" s="16" t="s">
+        <v>468</v>
       </c>
       <c r="B97" s="16" t="s">
         <v>297</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>128</v>
+        <v>259</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>179</v>
+        <v>260</v>
       </c>
       <c r="E97" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F97" s="32" t="s">
-        <v>355</v>
+      <c r="F97" s="33" t="s">
+        <v>354</v>
       </c>
       <c r="G97" s="7"/>
       <c r="H97" s="24"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A98" s="16">
-        <v>97</v>
+      <c r="A98" s="16" t="s">
+        <v>469</v>
       </c>
       <c r="B98" s="16" t="s">
         <v>297</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E98" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F98" s="32" t="s">
-        <v>355</v>
+        <v>36</v>
+      </c>
+      <c r="F98" s="33" t="s">
+        <v>354</v>
       </c>
       <c r="G98" s="7"/>
       <c r="H98" s="24"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A99" s="16">
-        <v>98</v>
+      <c r="A99" s="16" t="s">
+        <v>470</v>
       </c>
       <c r="B99" s="16" t="s">
         <v>297</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>261</v>
+        <v>183</v>
       </c>
       <c r="E99" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="F99" s="32" t="s">
-        <v>355</v>
+        <v>41</v>
+      </c>
+      <c r="F99" s="33" t="s">
+        <v>354</v>
       </c>
       <c r="G99" s="7"/>
       <c r="H99" s="24"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A100" s="16">
-        <v>99</v>
+      <c r="A100" s="16" t="s">
+        <v>471</v>
       </c>
       <c r="B100" s="16" t="s">
         <v>297</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="E100" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F100" s="32" t="s">
-        <v>355</v>
+        <v>74</v>
+      </c>
+      <c r="F100" s="33" t="s">
+        <v>354</v>
       </c>
       <c r="G100" s="7"/>
       <c r="H100" s="24"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A101" s="16">
-        <v>100</v>
+      <c r="A101" s="16" t="s">
+        <v>472</v>
       </c>
       <c r="B101" s="16" t="s">
         <v>297</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>150</v>
+        <v>267</v>
       </c>
       <c r="E101" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F101" s="32" t="s">
-        <v>355</v>
+        <v>25</v>
+      </c>
+      <c r="F101" s="33" t="s">
+        <v>354</v>
       </c>
       <c r="G101" s="7"/>
       <c r="H101" s="24"/>
     </row>
-    <row r="102" spans="1:8" s="3" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="16">
-        <v>101</v>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A102" s="16" t="s">
+        <v>473</v>
       </c>
       <c r="B102" s="16" t="s">
         <v>297</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>224</v>
+        <v>150</v>
       </c>
       <c r="E102" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F102" s="32" t="s">
-        <v>355</v>
+        <v>15</v>
+      </c>
+      <c r="F102" s="33" t="s">
+        <v>354</v>
       </c>
       <c r="G102" s="7"/>
       <c r="H102" s="24"/>
     </row>
     <row r="103" spans="1:8" s="3" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="16">
-        <v>102</v>
+      <c r="A103" s="16" t="s">
+        <v>474</v>
       </c>
       <c r="B103" s="16" t="s">
         <v>297</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>262</v>
+        <v>224</v>
       </c>
       <c r="E103" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F103" s="32" t="s">
-        <v>355</v>
-      </c>
-      <c r="G103" s="12"/>
-      <c r="H103" s="26"/>
+        <v>25</v>
+      </c>
+      <c r="F103" s="33" t="s">
+        <v>354</v>
+      </c>
+      <c r="G103" s="7"/>
+      <c r="H103" s="24"/>
     </row>
     <row r="104" spans="1:8" s="3" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="16">
-        <v>103</v>
+      <c r="A104" s="16" t="s">
+        <v>475</v>
       </c>
       <c r="B104" s="16" t="s">
         <v>297</v>
@@ -4068,20 +4646,20 @@
         <v>116</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>173</v>
+        <v>262</v>
       </c>
       <c r="E104" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F104" s="32" t="s">
-        <v>355</v>
+      <c r="F104" s="33" t="s">
+        <v>354</v>
       </c>
       <c r="G104" s="12"/>
       <c r="H104" s="26"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A105" s="16">
-        <v>104</v>
+    <row r="105" spans="1:8" s="3" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="16" t="s">
+        <v>476</v>
       </c>
       <c r="B105" s="16" t="s">
         <v>297</v>
@@ -4090,42 +4668,42 @@
         <v>116</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>263</v>
+        <v>173</v>
       </c>
       <c r="E105" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F105" s="32" t="s">
-        <v>355</v>
+      <c r="F105" s="33" t="s">
+        <v>354</v>
       </c>
       <c r="G105" s="12"/>
       <c r="H105" s="26"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A106" s="16">
-        <v>105</v>
+      <c r="A106" s="16" t="s">
+        <v>477</v>
       </c>
       <c r="B106" s="16" t="s">
         <v>297</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>208</v>
+        <v>263</v>
       </c>
       <c r="E106" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F106" s="32" t="s">
-        <v>355</v>
-      </c>
-      <c r="G106" s="7"/>
-      <c r="H106" s="24"/>
+        <v>26</v>
+      </c>
+      <c r="F106" s="33" t="s">
+        <v>354</v>
+      </c>
+      <c r="G106" s="12"/>
+      <c r="H106" s="26"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A107" s="16">
-        <v>106</v>
+      <c r="A107" s="16" t="s">
+        <v>478</v>
       </c>
       <c r="B107" s="16" t="s">
         <v>297</v>
@@ -4134,170 +4712,170 @@
         <v>129</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E107" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="F107" s="32" t="s">
-        <v>355</v>
+        <v>64</v>
+      </c>
+      <c r="F107" s="33" t="s">
+        <v>354</v>
       </c>
       <c r="G107" s="7"/>
       <c r="H107" s="24"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A108" s="16">
-        <v>107</v>
+      <c r="A108" s="16" t="s">
+        <v>479</v>
       </c>
       <c r="B108" s="16" t="s">
         <v>297</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="D108" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="E108" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="F108" s="32" t="s">
-        <v>355</v>
+        <v>129</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="E108" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F108" s="33" t="s">
+        <v>354</v>
       </c>
       <c r="G108" s="7"/>
       <c r="H108" s="24"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A109" s="16">
-        <v>108</v>
+      <c r="A109" s="16" t="s">
+        <v>480</v>
       </c>
       <c r="B109" s="16" t="s">
-        <v>220</v>
+        <v>297</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D109" s="12" t="s">
-        <v>242</v>
+        <v>121</v>
+      </c>
+      <c r="D109" s="10" t="s">
+        <v>225</v>
       </c>
       <c r="E109" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="F109" s="32" t="s">
-        <v>355</v>
+        <v>67</v>
+      </c>
+      <c r="F109" s="33" t="s">
+        <v>354</v>
       </c>
       <c r="G109" s="7"/>
       <c r="H109" s="24"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A110" s="16">
-        <v>109</v>
+      <c r="A110" s="16" t="s">
+        <v>481</v>
       </c>
       <c r="B110" s="16" t="s">
-        <v>297</v>
+        <v>220</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="D110" s="12" t="s">
-        <v>298</v>
+        <v>242</v>
       </c>
       <c r="E110" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="F110" s="32" t="s">
-        <v>355</v>
+        <v>241</v>
+      </c>
+      <c r="F110" s="33" t="s">
+        <v>354</v>
       </c>
       <c r="G110" s="7"/>
       <c r="H110" s="24"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A111" s="16">
-        <v>110</v>
+      <c r="A111" s="16" t="s">
+        <v>482</v>
       </c>
       <c r="B111" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="C111" s="16"/>
+      <c r="C111" s="16" t="s">
+        <v>114</v>
+      </c>
       <c r="D111" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="E111" s="12"/>
-      <c r="F111" s="32" t="s">
-        <v>355</v>
+        <v>298</v>
+      </c>
+      <c r="E111" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="F111" s="33" t="s">
+        <v>354</v>
       </c>
       <c r="G111" s="7"/>
       <c r="H111" s="24"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A112" s="16">
-        <v>111</v>
+      <c r="A112" s="16" t="s">
+        <v>483</v>
       </c>
       <c r="B112" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="C112" s="16" t="s">
-        <v>130</v>
-      </c>
+      <c r="C112" s="16"/>
       <c r="D112" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="E112" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F112" s="32" t="s">
-        <v>355</v>
+        <v>301</v>
+      </c>
+      <c r="E112" s="12"/>
+      <c r="F112" s="33" t="s">
+        <v>354</v>
       </c>
       <c r="G112" s="7"/>
       <c r="H112" s="24"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A113" s="16">
-        <v>112</v>
+      <c r="A113" s="16" t="s">
+        <v>484</v>
       </c>
       <c r="B113" s="16" t="s">
         <v>297</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E113" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="F113" s="32" t="s">
-        <v>355</v>
+        <v>35</v>
+      </c>
+      <c r="F113" s="33" t="s">
+        <v>354</v>
       </c>
       <c r="G113" s="7"/>
       <c r="H113" s="24"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A114" s="16">
-        <v>113</v>
+      <c r="A114" s="16" t="s">
+        <v>485</v>
       </c>
       <c r="B114" s="16" t="s">
         <v>297</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="D114" s="12" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="E114" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F114" s="32" t="s">
-        <v>355</v>
+        <v>304</v>
+      </c>
+      <c r="F114" s="33" t="s">
+        <v>354</v>
       </c>
       <c r="G114" s="7"/>
       <c r="H114" s="24"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A115" s="16">
-        <v>114</v>
+      <c r="A115" s="16" t="s">
+        <v>486</v>
       </c>
       <c r="B115" s="16" t="s">
         <v>297</v>
@@ -4306,20 +4884,20 @@
         <v>114</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E115" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F115" s="32" t="s">
-        <v>355</v>
+        <v>4</v>
+      </c>
+      <c r="F115" s="33" t="s">
+        <v>354</v>
       </c>
       <c r="G115" s="7"/>
       <c r="H115" s="24"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A116" s="16">
-        <v>115</v>
+      <c r="A116" s="16" t="s">
+        <v>487</v>
       </c>
       <c r="B116" s="16" t="s">
         <v>297</v>
@@ -4328,1618 +4906,1626 @@
         <v>114</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="E116" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F116" s="32" t="s">
-        <v>355</v>
+      <c r="F116" s="33" t="s">
+        <v>354</v>
       </c>
       <c r="G116" s="7"/>
       <c r="H116" s="24"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A117" s="16">
-        <v>116</v>
+      <c r="A117" s="16" t="s">
+        <v>488</v>
       </c>
       <c r="B117" s="16" t="s">
         <v>297</v>
       </c>
       <c r="C117" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D117" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="E117" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F117" s="33" t="s">
+        <v>354</v>
+      </c>
+      <c r="G117" s="7"/>
+      <c r="H117" s="24"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A118" s="16" t="s">
+        <v>489</v>
+      </c>
+      <c r="B118" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="C118" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="D117" s="12" t="s">
+      <c r="D118" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="E118" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="F118" s="33" t="s">
+        <v>354</v>
+      </c>
+      <c r="G118" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="H118" s="24" t="s">
         <v>379</v>
       </c>
-      <c r="E117" s="12" t="s">
-        <v>380</v>
-      </c>
-      <c r="F117" s="32" t="s">
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A119" s="16" t="s">
+        <v>490</v>
+      </c>
+      <c r="B119" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="C119" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="E119" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F119" s="33">
+        <v>10000</v>
+      </c>
+      <c r="G119" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="H119" s="24" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A120" s="16" t="s">
+        <v>491</v>
+      </c>
+      <c r="B120" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="C120" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="E120" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F120" s="33" t="s">
         <v>355</v>
-      </c>
-      <c r="G117" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="H117" s="24" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A118" s="16">
-        <v>117</v>
-      </c>
-      <c r="B118" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C118" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="D118" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="E118" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F118" s="32" t="s">
-        <v>356</v>
-      </c>
-      <c r="G118" s="7"/>
-      <c r="H118" s="24"/>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A119" s="16">
-        <v>118</v>
-      </c>
-      <c r="B119" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C119" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="D119" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="E119" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F119" s="32" t="s">
-        <v>357</v>
-      </c>
-      <c r="G119" s="7"/>
-      <c r="H119" s="24"/>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A120" s="16">
-        <v>119</v>
-      </c>
-      <c r="B120" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="C120" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="D120" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="E120" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F120" s="32" t="s">
-        <v>357</v>
       </c>
       <c r="G120" s="7"/>
       <c r="H120" s="24"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A121" s="16">
-        <v>120</v>
+      <c r="A121" s="16" t="s">
+        <v>492</v>
       </c>
       <c r="B121" s="16" t="s">
         <v>297</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>313</v>
+        <v>271</v>
       </c>
       <c r="E121" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F121" s="32" t="s">
-        <v>358</v>
-      </c>
-      <c r="G121" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="H121" s="24" t="s">
-        <v>396</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="F121" s="33" t="s">
+        <v>356</v>
+      </c>
+      <c r="G121" s="7"/>
+      <c r="H121" s="24"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A122" s="16">
-        <v>121</v>
+      <c r="A122" s="16" t="s">
+        <v>493</v>
       </c>
       <c r="B122" s="16" t="s">
-        <v>297</v>
+        <v>220</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="E122" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F122" s="32" t="s">
-        <v>359</v>
+        <v>39</v>
+      </c>
+      <c r="F122" s="33" t="s">
+        <v>356</v>
       </c>
       <c r="G122" s="7"/>
       <c r="H122" s="24"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A123" s="16">
-        <v>122</v>
+      <c r="A123" s="16" t="s">
+        <v>494</v>
       </c>
       <c r="B123" s="16" t="s">
         <v>297</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>210</v>
+        <v>313</v>
       </c>
       <c r="E123" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F123" s="32" t="s">
-        <v>359</v>
-      </c>
-      <c r="G123" s="7"/>
-      <c r="H123" s="24"/>
+        <v>40</v>
+      </c>
+      <c r="F123" s="33" t="s">
+        <v>357</v>
+      </c>
+      <c r="G123" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="H123" s="24" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A124" s="16">
-        <v>123</v>
+      <c r="A124" s="16" t="s">
+        <v>495</v>
       </c>
       <c r="B124" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="C124" s="16"/>
+      <c r="C124" s="16" t="s">
+        <v>114</v>
+      </c>
       <c r="D124" s="7" t="s">
-        <v>97</v>
+        <v>284</v>
       </c>
       <c r="E124" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F124" s="32" t="s">
-        <v>359</v>
-      </c>
-      <c r="G124" s="7"/>
-      <c r="H124" s="24"/>
+        <v>39</v>
+      </c>
+      <c r="F124" s="33">
+        <v>5500</v>
+      </c>
+      <c r="G124" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="H124" s="24" t="s">
+        <v>583</v>
+      </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A125" s="16">
-        <v>124</v>
+      <c r="A125" s="16" t="s">
+        <v>496</v>
       </c>
       <c r="B125" s="16" t="s">
         <v>297</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>264</v>
+        <v>180</v>
       </c>
       <c r="E125" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F125" s="32" t="s">
-        <v>359</v>
+        <v>20</v>
+      </c>
+      <c r="F125" s="33" t="s">
+        <v>358</v>
       </c>
       <c r="G125" s="7"/>
       <c r="H125" s="24"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A126" s="16">
-        <v>125</v>
+      <c r="A126" s="16" t="s">
+        <v>497</v>
       </c>
       <c r="B126" s="16" t="s">
         <v>297</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>272</v>
+        <v>210</v>
       </c>
       <c r="E126" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F126" s="32" t="s">
-        <v>359</v>
+        <v>5</v>
+      </c>
+      <c r="F126" s="33" t="s">
+        <v>358</v>
       </c>
       <c r="G126" s="7"/>
       <c r="H126" s="24"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A127" s="16">
-        <v>126</v>
+      <c r="A127" s="16" t="s">
+        <v>498</v>
       </c>
       <c r="B127" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="C127" s="16" t="s">
-        <v>274</v>
-      </c>
+      <c r="C127" s="16"/>
       <c r="D127" s="7" t="s">
-        <v>273</v>
+        <v>97</v>
       </c>
       <c r="E127" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F127" s="32" t="s">
-        <v>359</v>
+        <v>45</v>
+      </c>
+      <c r="F127" s="33" t="s">
+        <v>358</v>
       </c>
       <c r="G127" s="7"/>
       <c r="H127" s="24"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A128" s="16">
-        <v>127</v>
+      <c r="A128" s="16" t="s">
+        <v>499</v>
       </c>
       <c r="B128" s="16" t="s">
         <v>297</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>259</v>
+        <v>124</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="E128" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F128" s="32" t="s">
-        <v>359</v>
+        <v>46</v>
+      </c>
+      <c r="F128" s="33" t="s">
+        <v>358</v>
       </c>
       <c r="G128" s="7"/>
       <c r="H128" s="24"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A129" s="16">
-        <v>128</v>
+      <c r="A129" s="16" t="s">
+        <v>500</v>
       </c>
       <c r="B129" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="C129" s="16"/>
+      <c r="C129" s="16" t="s">
+        <v>119</v>
+      </c>
       <c r="D129" s="7" t="s">
-        <v>110</v>
+        <v>272</v>
       </c>
       <c r="E129" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F129" s="32" t="s">
-        <v>359</v>
+        <v>35</v>
+      </c>
+      <c r="F129" s="33" t="s">
+        <v>358</v>
       </c>
       <c r="G129" s="7"/>
       <c r="H129" s="24"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A130" s="16">
-        <v>129</v>
+      <c r="A130" s="16" t="s">
+        <v>501</v>
       </c>
       <c r="B130" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="C130" s="16"/>
+      <c r="C130" s="16" t="s">
+        <v>274</v>
+      </c>
       <c r="D130" s="7" t="s">
-        <v>109</v>
+        <v>273</v>
       </c>
       <c r="E130" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F130" s="32" t="s">
-        <v>359</v>
+        <v>24</v>
+      </c>
+      <c r="F130" s="33" t="s">
+        <v>358</v>
       </c>
       <c r="G130" s="7"/>
       <c r="H130" s="24"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A131" s="16">
-        <v>130</v>
+      <c r="A131" s="16" t="s">
+        <v>502</v>
       </c>
       <c r="B131" s="16" t="s">
         <v>297</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>119</v>
+        <v>259</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>159</v>
+        <v>277</v>
       </c>
       <c r="E131" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F131" s="32" t="s">
-        <v>360</v>
+        <v>25</v>
+      </c>
+      <c r="F131" s="33" t="s">
+        <v>358</v>
       </c>
       <c r="G131" s="7"/>
       <c r="H131" s="24"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A132" s="16">
-        <v>131</v>
+      <c r="A132" s="16" t="s">
+        <v>503</v>
       </c>
       <c r="B132" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="C132" s="19" t="s">
-        <v>290</v>
-      </c>
+      <c r="C132" s="16"/>
       <c r="D132" s="7" t="s">
-        <v>291</v>
+        <v>110</v>
       </c>
       <c r="E132" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F132" s="32" t="s">
-        <v>361</v>
+        <v>47</v>
+      </c>
+      <c r="F132" s="33" t="s">
+        <v>358</v>
       </c>
       <c r="G132" s="7"/>
       <c r="H132" s="24"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A133" s="16">
-        <v>132</v>
+      <c r="A133" s="16" t="s">
+        <v>504</v>
       </c>
       <c r="B133" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="C133" s="19" t="s">
-        <v>137</v>
-      </c>
+      <c r="C133" s="16"/>
       <c r="D133" s="7" t="s">
-        <v>293</v>
+        <v>109</v>
       </c>
       <c r="E133" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F133" s="32" t="s">
-        <v>361</v>
+        <v>20</v>
+      </c>
+      <c r="F133" s="33" t="s">
+        <v>358</v>
       </c>
       <c r="G133" s="7"/>
       <c r="H133" s="24"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A134" s="16">
-        <v>133</v>
+      <c r="A134" s="16" t="s">
+        <v>505</v>
       </c>
       <c r="B134" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="C134" s="19"/>
+        <v>297</v>
+      </c>
+      <c r="C134" s="16" t="s">
+        <v>119</v>
+      </c>
       <c r="D134" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="E134" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F134" s="32" t="s">
-        <v>362</v>
+        <v>159</v>
+      </c>
+      <c r="E134" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F134" s="33" t="s">
+        <v>359</v>
       </c>
       <c r="G134" s="7"/>
       <c r="H134" s="24"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A135" s="16">
-        <v>134</v>
+      <c r="A135" s="16" t="s">
+        <v>506</v>
       </c>
       <c r="B135" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="C135" s="16"/>
+      <c r="C135" s="19" t="s">
+        <v>290</v>
+      </c>
       <c r="D135" s="7" t="s">
-        <v>98</v>
+        <v>291</v>
       </c>
       <c r="E135" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F135" s="32" t="s">
-        <v>362</v>
+        <v>21</v>
+      </c>
+      <c r="F135" s="33" t="s">
+        <v>360</v>
       </c>
       <c r="G135" s="7"/>
       <c r="H135" s="24"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A136" s="16">
-        <v>135</v>
+      <c r="A136" s="16" t="s">
+        <v>507</v>
       </c>
       <c r="B136" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="C136" s="16" t="s">
-        <v>122</v>
+      <c r="C136" s="19" t="s">
+        <v>137</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>175</v>
+        <v>293</v>
       </c>
       <c r="E136" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F136" s="32" t="s">
-        <v>362</v>
+        <v>2</v>
+      </c>
+      <c r="F136" s="33" t="s">
+        <v>360</v>
       </c>
       <c r="G136" s="7"/>
       <c r="H136" s="24"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A137" s="16">
-        <v>136</v>
+      <c r="A137" s="16" t="s">
+        <v>508</v>
       </c>
       <c r="B137" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="C137" s="16"/>
+      <c r="C137" s="19"/>
       <c r="D137" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="E137" s="13"/>
-      <c r="F137" s="32" t="s">
-        <v>362</v>
+        <v>239</v>
+      </c>
+      <c r="E137" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F137" s="33" t="s">
+        <v>361</v>
       </c>
       <c r="G137" s="7"/>
       <c r="H137" s="24"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A138" s="16">
-        <v>137</v>
+      <c r="A138" s="16" t="s">
+        <v>509</v>
       </c>
       <c r="B138" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="C138" s="28" t="s">
-        <v>116</v>
-      </c>
+      <c r="C138" s="16"/>
       <c r="D138" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="E138" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F138" s="32" t="s">
-        <v>363</v>
+        <v>98</v>
+      </c>
+      <c r="E138" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F138" s="33" t="s">
+        <v>361</v>
       </c>
       <c r="G138" s="7"/>
       <c r="H138" s="24"/>
     </row>
-    <row r="139" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="16">
-        <v>138</v>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A139" s="16" t="s">
+        <v>510</v>
       </c>
       <c r="B139" s="16" t="s">
         <v>297</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="E139" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F139" s="32" t="s">
-        <v>363</v>
-      </c>
-      <c r="G139" s="11"/>
-      <c r="H139" s="23"/>
+        <v>40</v>
+      </c>
+      <c r="F139" s="33" t="s">
+        <v>361</v>
+      </c>
+      <c r="G139" s="7"/>
+      <c r="H139" s="24"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A140" s="16">
-        <v>139</v>
+      <c r="A140" s="16" t="s">
+        <v>511</v>
       </c>
       <c r="B140" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C140" s="16" t="s">
-        <v>134</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="C140" s="16"/>
       <c r="D140" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="E140" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F140" s="32" t="s">
-        <v>363</v>
+        <v>226</v>
+      </c>
+      <c r="E140" s="13"/>
+      <c r="F140" s="33" t="s">
+        <v>361</v>
       </c>
       <c r="G140" s="7"/>
       <c r="H140" s="24"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A141" s="16">
-        <v>140</v>
+      <c r="A141" s="16" t="s">
+        <v>512</v>
       </c>
       <c r="B141" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="C141" s="16" t="s">
-        <v>128</v>
+      <c r="C141" s="28" t="s">
+        <v>116</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="E141" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F141" s="32" t="s">
-        <v>363</v>
+        <v>275</v>
+      </c>
+      <c r="E141" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F141" s="33" t="s">
+        <v>362</v>
       </c>
       <c r="G141" s="7"/>
       <c r="H141" s="24"/>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A142" s="16">
-        <v>141</v>
+    <row r="142" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A142" s="16" t="s">
+        <v>513</v>
       </c>
       <c r="B142" s="16" t="s">
-        <v>220</v>
+        <v>297</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="E142" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="F142" s="32" t="s">
-        <v>363</v>
-      </c>
-      <c r="G142" s="7"/>
-      <c r="H142" s="24"/>
+        <v>26</v>
+      </c>
+      <c r="F142" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="G142" s="11"/>
+      <c r="H142" s="23"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A143" s="16">
-        <v>142</v>
+      <c r="A143" s="16" t="s">
+        <v>514</v>
       </c>
       <c r="B143" s="16" t="s">
         <v>297</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="E143" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F143" s="32" t="s">
-        <v>363</v>
+        <v>49</v>
+      </c>
+      <c r="F143" s="33" t="s">
+        <v>362</v>
       </c>
       <c r="G143" s="7"/>
       <c r="H143" s="24"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A144" s="16">
-        <v>143</v>
+      <c r="A144" s="16" t="s">
+        <v>515</v>
       </c>
       <c r="B144" s="16" t="s">
         <v>297</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>151</v>
+        <v>199</v>
       </c>
       <c r="E144" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F144" s="32" t="s">
-        <v>363</v>
+        <v>49</v>
+      </c>
+      <c r="F144" s="33" t="s">
+        <v>362</v>
       </c>
       <c r="G144" s="7"/>
       <c r="H144" s="24"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A145" s="16">
-        <v>144</v>
+      <c r="A145" s="16" t="s">
+        <v>516</v>
       </c>
       <c r="B145" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C145" s="16"/>
+        <v>220</v>
+      </c>
+      <c r="C145" s="16" t="s">
+        <v>136</v>
+      </c>
       <c r="D145" s="7" t="s">
-        <v>99</v>
+        <v>200</v>
       </c>
       <c r="E145" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F145" s="32" t="s">
-        <v>363</v>
+        <v>50</v>
+      </c>
+      <c r="F145" s="33" t="s">
+        <v>362</v>
       </c>
       <c r="G145" s="7"/>
       <c r="H145" s="24"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A146" s="16">
-        <v>145</v>
+      <c r="A146" s="16" t="s">
+        <v>517</v>
       </c>
       <c r="B146" s="16" t="s">
         <v>297</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
       <c r="E146" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F146" s="32" t="s">
-        <v>363</v>
+        <v>25</v>
+      </c>
+      <c r="F146" s="33" t="s">
+        <v>362</v>
       </c>
       <c r="G146" s="7"/>
       <c r="H146" s="24"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A147" s="16">
-        <v>146</v>
+      <c r="A147" s="16" t="s">
+        <v>518</v>
       </c>
       <c r="B147" s="16" t="s">
         <v>297</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="E147" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F147" s="32" t="s">
-        <v>363</v>
+        <v>5</v>
+      </c>
+      <c r="F147" s="33" t="s">
+        <v>362</v>
       </c>
       <c r="G147" s="7"/>
       <c r="H147" s="24"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A148" s="16">
-        <v>147</v>
+      <c r="A148" s="16" t="s">
+        <v>519</v>
       </c>
       <c r="B148" s="16" t="s">
         <v>297</v>
       </c>
       <c r="C148" s="16"/>
-      <c r="D148" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="E148" s="14" t="s">
-        <v>53</v>
+      <c r="D148" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E148" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="F148" s="33" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G148" s="7"/>
       <c r="H148" s="24"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A149" s="16">
-        <v>148</v>
+      <c r="A149" s="16" t="s">
+        <v>520</v>
       </c>
       <c r="B149" s="16" t="s">
         <v>297</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>284</v>
+        <v>201</v>
       </c>
       <c r="E149" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F149" s="32" t="s">
-        <v>363</v>
+        <v>51</v>
+      </c>
+      <c r="F149" s="33" t="s">
+        <v>362</v>
       </c>
       <c r="G149" s="7"/>
       <c r="H149" s="24"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A150" s="16">
-        <v>149</v>
+      <c r="A150" s="16" t="s">
+        <v>521</v>
       </c>
       <c r="B150" s="16" t="s">
         <v>297</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E150" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F150" s="32" t="s">
-        <v>363</v>
+        <v>52</v>
+      </c>
+      <c r="F150" s="33" t="s">
+        <v>362</v>
       </c>
       <c r="G150" s="7"/>
       <c r="H150" s="24"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A151" s="16">
-        <v>150</v>
+      <c r="A151" s="16" t="s">
+        <v>522</v>
       </c>
       <c r="B151" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="C151" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="D151" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="E151" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F151" s="32" t="s">
-        <v>363</v>
+      <c r="C151" s="16"/>
+      <c r="D151" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="E151" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F151" s="37" t="s">
+        <v>362</v>
       </c>
       <c r="G151" s="7"/>
       <c r="H151" s="24"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A152" s="16">
-        <v>151</v>
+      <c r="A152" s="16" t="s">
+        <v>523</v>
       </c>
       <c r="B152" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="C152" s="16"/>
+      <c r="C152" s="16" t="s">
+        <v>122</v>
+      </c>
       <c r="D152" s="7" t="s">
-        <v>100</v>
+        <v>202</v>
       </c>
       <c r="E152" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F152" s="32" t="s">
-        <v>363</v>
+        <v>31</v>
+      </c>
+      <c r="F152" s="33" t="s">
+        <v>362</v>
       </c>
       <c r="G152" s="7"/>
       <c r="H152" s="24"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A153" s="16">
-        <v>152</v>
+      <c r="A153" s="16" t="s">
+        <v>524</v>
       </c>
       <c r="B153" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="C153" s="16"/>
+      <c r="C153" s="16" t="s">
+        <v>128</v>
+      </c>
       <c r="D153" s="7" t="s">
-        <v>101</v>
+        <v>182</v>
       </c>
       <c r="E153" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F153" s="32" t="s">
-        <v>363</v>
+        <v>25</v>
+      </c>
+      <c r="F153" s="33" t="s">
+        <v>362</v>
       </c>
       <c r="G153" s="7"/>
       <c r="H153" s="24"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A154" s="16">
-        <v>153</v>
+      <c r="A154" s="16" t="s">
+        <v>525</v>
       </c>
       <c r="B154" s="16" t="s">
         <v>297</v>
       </c>
       <c r="C154" s="16"/>
       <c r="D154" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E154" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F154" s="32" t="s">
-        <v>363</v>
+        <v>25</v>
+      </c>
+      <c r="F154" s="33" t="s">
+        <v>362</v>
       </c>
       <c r="G154" s="7"/>
       <c r="H154" s="24"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A155" s="16">
-        <v>154</v>
+      <c r="A155" s="16" t="s">
+        <v>526</v>
       </c>
       <c r="B155" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="C155" s="16" t="s">
-        <v>142</v>
-      </c>
+      <c r="C155" s="16"/>
       <c r="D155" s="7" t="s">
-        <v>197</v>
+        <v>101</v>
       </c>
       <c r="E155" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F155" s="32" t="s">
-        <v>363</v>
+        <v>54</v>
+      </c>
+      <c r="F155" s="33" t="s">
+        <v>362</v>
       </c>
       <c r="G155" s="7"/>
       <c r="H155" s="24"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A156" s="16">
-        <v>155</v>
+      <c r="A156" s="16" t="s">
+        <v>527</v>
       </c>
       <c r="B156" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="C156" s="16" t="s">
-        <v>141</v>
-      </c>
+      <c r="C156" s="16"/>
       <c r="D156" s="7" t="s">
-        <v>213</v>
+        <v>102</v>
       </c>
       <c r="E156" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="F156" s="32" t="s">
-        <v>363</v>
+        <v>4</v>
+      </c>
+      <c r="F156" s="33" t="s">
+        <v>362</v>
       </c>
       <c r="G156" s="7"/>
       <c r="H156" s="24"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A157" s="16">
-        <v>156</v>
+      <c r="A157" s="16" t="s">
+        <v>528</v>
       </c>
       <c r="B157" s="16" t="s">
         <v>297</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="E157" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="F157" s="32" t="s">
-        <v>363</v>
+        <v>46</v>
+      </c>
+      <c r="F157" s="33" t="s">
+        <v>362</v>
       </c>
       <c r="G157" s="7"/>
       <c r="H157" s="24"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A158" s="16">
-        <v>157</v>
+      <c r="A158" s="16" t="s">
+        <v>529</v>
       </c>
       <c r="B158" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="C158" s="16"/>
+      <c r="C158" s="16" t="s">
+        <v>141</v>
+      </c>
       <c r="D158" s="7" t="s">
-        <v>103</v>
+        <v>213</v>
       </c>
       <c r="E158" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F158" s="32" t="s">
-        <v>363</v>
+        <v>55</v>
+      </c>
+      <c r="F158" s="33" t="s">
+        <v>362</v>
       </c>
       <c r="G158" s="7"/>
       <c r="H158" s="24"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A159" s="16">
-        <v>158</v>
+      <c r="A159" s="16" t="s">
+        <v>530</v>
       </c>
       <c r="B159" s="16" t="s">
         <v>297</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>283</v>
+        <v>176</v>
       </c>
       <c r="E159" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F159" s="32" t="s">
-        <v>363</v>
+        <v>55</v>
+      </c>
+      <c r="F159" s="33" t="s">
+        <v>362</v>
       </c>
       <c r="G159" s="7"/>
       <c r="H159" s="24"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A160" s="16">
-        <v>159</v>
+      <c r="A160" s="16" t="s">
+        <v>531</v>
       </c>
       <c r="B160" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="C160" s="16" t="s">
-        <v>119</v>
-      </c>
+      <c r="C160" s="16"/>
       <c r="D160" s="7" t="s">
-        <v>161</v>
+        <v>103</v>
       </c>
       <c r="E160" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F160" s="32" t="s">
-        <v>363</v>
+        <v>20</v>
+      </c>
+      <c r="F160" s="33" t="s">
+        <v>362</v>
       </c>
       <c r="G160" s="7"/>
       <c r="H160" s="24"/>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A161" s="16">
-        <v>160</v>
+      <c r="A161" s="16" t="s">
+        <v>532</v>
       </c>
       <c r="B161" s="16" t="s">
         <v>297</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="D161" s="7" t="s">
-        <v>181</v>
+        <v>283</v>
       </c>
       <c r="E161" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F161" s="32" t="s">
-        <v>363</v>
+        <v>25</v>
+      </c>
+      <c r="F161" s="33" t="s">
+        <v>362</v>
       </c>
       <c r="G161" s="7"/>
       <c r="H161" s="24"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A162" s="16">
+      <c r="A162" s="16" t="s">
+        <v>533</v>
+      </c>
+      <c r="B162" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="C162" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D162" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="B162" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C162" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="D162" s="7" t="s">
-        <v>160</v>
-      </c>
       <c r="E162" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F162" s="32" t="s">
-        <v>363</v>
+        <v>76</v>
+      </c>
+      <c r="F162" s="33" t="s">
+        <v>362</v>
       </c>
       <c r="G162" s="7"/>
       <c r="H162" s="24"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A163" s="16">
-        <v>162</v>
+      <c r="A163" s="16" t="s">
+        <v>534</v>
       </c>
       <c r="B163" s="16" t="s">
         <v>297</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E163" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F163" s="32" t="s">
-        <v>363</v>
+        <v>39</v>
+      </c>
+      <c r="F163" s="33" t="s">
+        <v>362</v>
       </c>
       <c r="G163" s="7"/>
       <c r="H163" s="24"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A164" s="16">
-        <v>163</v>
+      <c r="A164" s="16" t="s">
+        <v>535</v>
       </c>
       <c r="B164" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="C164" s="16"/>
+      <c r="C164" s="16" t="s">
+        <v>140</v>
+      </c>
       <c r="D164" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="E164" s="13"/>
-      <c r="F164" s="32" t="s">
-        <v>363</v>
+        <v>160</v>
+      </c>
+      <c r="E164" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F164" s="33" t="s">
+        <v>362</v>
       </c>
       <c r="G164" s="7"/>
       <c r="H164" s="24"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A165" s="16">
-        <v>164</v>
+      <c r="A165" s="16" t="s">
+        <v>536</v>
       </c>
       <c r="B165" s="16" t="s">
         <v>297</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>282</v>
+        <v>173</v>
       </c>
       <c r="E165" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="F165" s="32" t="s">
-        <v>363</v>
+        <v>26</v>
+      </c>
+      <c r="F165" s="33" t="s">
+        <v>362</v>
       </c>
       <c r="G165" s="7"/>
       <c r="H165" s="24"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A166" s="16">
-        <v>165</v>
+      <c r="A166" s="16" t="s">
+        <v>537</v>
       </c>
       <c r="B166" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="C166" s="16" t="s">
-        <v>116</v>
-      </c>
+      <c r="C166" s="16"/>
       <c r="D166" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="E166" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F166" s="32" t="s">
-        <v>363</v>
+        <v>162</v>
+      </c>
+      <c r="E166" s="13"/>
+      <c r="F166" s="33" t="s">
+        <v>362</v>
       </c>
       <c r="G166" s="7"/>
       <c r="H166" s="24"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A167" s="16">
-        <v>166</v>
+      <c r="A167" s="16" t="s">
+        <v>538</v>
       </c>
       <c r="B167" s="16" t="s">
         <v>297</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E167" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F167" s="32" t="s">
-        <v>363</v>
+        <v>65</v>
+      </c>
+      <c r="F167" s="33" t="s">
+        <v>362</v>
       </c>
       <c r="G167" s="7"/>
       <c r="H167" s="24"/>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A168" s="16">
+      <c r="A168" s="16" t="s">
+        <v>539</v>
+      </c>
+      <c r="B168" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="C168" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D168" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="B168" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C168" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D168" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="E168" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F168" s="32" t="s">
-        <v>363</v>
+      <c r="E168" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F168" s="33" t="s">
+        <v>362</v>
       </c>
       <c r="G168" s="7"/>
       <c r="H168" s="24"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A169" s="16">
-        <v>168</v>
+      <c r="A169" s="16" t="s">
+        <v>540</v>
       </c>
       <c r="B169" s="16" t="s">
         <v>297</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D169" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="E169" s="7"/>
-      <c r="F169" s="32" t="s">
-        <v>363</v>
+        <v>281</v>
+      </c>
+      <c r="E169" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F169" s="33" t="s">
+        <v>362</v>
       </c>
       <c r="G169" s="7"/>
       <c r="H169" s="24"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A170" s="16">
-        <v>169</v>
+      <c r="A170" s="16" t="s">
+        <v>541</v>
       </c>
       <c r="B170" s="16" t="s">
         <v>297</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D170" s="7" t="s">
-        <v>311</v>
+        <v>192</v>
       </c>
       <c r="E170" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="F170" s="32" t="s">
-        <v>363</v>
+        <v>20</v>
+      </c>
+      <c r="F170" s="33" t="s">
+        <v>362</v>
       </c>
       <c r="G170" s="7"/>
       <c r="H170" s="24"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A171" s="16">
-        <v>170</v>
+      <c r="A171" s="16" t="s">
+        <v>542</v>
       </c>
       <c r="B171" s="16" t="s">
         <v>297</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>386</v>
+        <v>119</v>
       </c>
       <c r="D171" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="E171" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="F171" s="32" t="s">
-        <v>363</v>
+        <v>300</v>
+      </c>
+      <c r="E171" s="7"/>
+      <c r="F171" s="33" t="s">
+        <v>362</v>
       </c>
       <c r="G171" s="7"/>
       <c r="H171" s="24"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A172" s="16">
-        <v>171</v>
+      <c r="A172" s="16" t="s">
+        <v>543</v>
       </c>
       <c r="B172" s="16" t="s">
         <v>297</v>
       </c>
       <c r="C172" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D172" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="E172" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F172" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="G172" s="7"/>
+      <c r="H172" s="24"/>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A173" s="16" t="s">
+        <v>544</v>
+      </c>
+      <c r="B173" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="C173" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="D172" s="7" t="s">
+      <c r="D173" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="E172" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="F172" s="32" t="s">
+      <c r="E173" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="F173" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="G173" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="H173" s="24" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A174" s="16" t="s">
+        <v>545</v>
+      </c>
+      <c r="B174" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="C174" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D174" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="E174" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F174" s="33" t="s">
         <v>363</v>
-      </c>
-      <c r="G172" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="H172" s="24" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A173" s="16">
-        <v>172</v>
-      </c>
-      <c r="B173" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C173" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D173" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="E173" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="F173" s="32" t="s">
-        <v>364</v>
-      </c>
-      <c r="G173" s="7"/>
-      <c r="H173" s="24"/>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A174" s="16">
-        <v>173</v>
-      </c>
-      <c r="B174" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C174" s="16"/>
-      <c r="D174" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E174" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="F174" s="32" t="s">
-        <v>365</v>
       </c>
       <c r="G174" s="7"/>
       <c r="H174" s="24"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A175" s="16">
-        <v>174</v>
+      <c r="A175" s="16" t="s">
+        <v>546</v>
       </c>
       <c r="B175" s="16" t="s">
         <v>297</v>
       </c>
       <c r="C175" s="16"/>
       <c r="D175" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E175" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F175" s="32" t="s">
-        <v>365</v>
+        <v>56</v>
+      </c>
+      <c r="F175" s="33" t="s">
+        <v>364</v>
       </c>
       <c r="G175" s="7"/>
       <c r="H175" s="24"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A176" s="16">
-        <v>175</v>
+      <c r="A176" s="16" t="s">
+        <v>547</v>
       </c>
       <c r="B176" s="16" t="s">
         <v>297</v>
       </c>
       <c r="C176" s="16"/>
-      <c r="D176" s="13" t="s">
-        <v>91</v>
+      <c r="D176" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="E176" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="F176" s="32" t="s">
-        <v>365</v>
+        <v>36</v>
+      </c>
+      <c r="F176" s="33" t="s">
+        <v>364</v>
       </c>
       <c r="G176" s="7"/>
       <c r="H176" s="24"/>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A177" s="16">
-        <v>176</v>
+      <c r="A177" s="16" t="s">
+        <v>548</v>
       </c>
       <c r="B177" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="C177" s="16" t="s">
-        <v>132</v>
-      </c>
+      <c r="C177" s="16"/>
       <c r="D177" s="13" t="s">
-        <v>307</v>
+        <v>91</v>
       </c>
       <c r="E177" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="F177" s="32" t="s">
-        <v>365</v>
+        <v>55</v>
+      </c>
+      <c r="F177" s="33" t="s">
+        <v>364</v>
       </c>
       <c r="G177" s="7"/>
       <c r="H177" s="24"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A178" s="16">
-        <v>177</v>
+      <c r="A178" s="16" t="s">
+        <v>549</v>
       </c>
       <c r="B178" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="C178" s="19" t="s">
+      <c r="C178" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="D178" s="14" t="s">
+      <c r="D178" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="E178" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="F178" s="33" t="s">
+        <v>364</v>
+      </c>
+      <c r="G178" s="7"/>
+      <c r="H178" s="24"/>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A179" s="16" t="s">
+        <v>550</v>
+      </c>
+      <c r="B179" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="C179" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D179" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="E178" s="14" t="s">
+      <c r="E179" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="F178" s="32" t="s">
+      <c r="F179" s="33" t="s">
+        <v>364</v>
+      </c>
+      <c r="G179" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="H179" s="24" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A180" s="16" t="s">
+        <v>551</v>
+      </c>
+      <c r="B180" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="C180" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D180" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E180" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F180" s="33" t="s">
         <v>365</v>
-      </c>
-      <c r="G178" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="H178" s="24" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A179" s="16">
-        <v>178</v>
-      </c>
-      <c r="B179" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C179" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D179" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="E179" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F179" s="32" t="s">
-        <v>366</v>
-      </c>
-      <c r="G179" s="7"/>
-      <c r="H179" s="24"/>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A180" s="16">
-        <v>179</v>
-      </c>
-      <c r="B180" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C180" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D180" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="E180" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F180" s="32" t="s">
-        <v>367</v>
       </c>
       <c r="G180" s="7"/>
       <c r="H180" s="24"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A181" s="16">
-        <v>180</v>
+      <c r="A181" s="16" t="s">
+        <v>552</v>
       </c>
       <c r="B181" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="C181" s="16"/>
+      <c r="C181" s="16" t="s">
+        <v>122</v>
+      </c>
       <c r="D181" s="7" t="s">
-        <v>88</v>
+        <v>168</v>
       </c>
       <c r="E181" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F181" s="32" t="s">
-        <v>368</v>
+        <v>57</v>
+      </c>
+      <c r="F181" s="33" t="s">
+        <v>366</v>
       </c>
       <c r="G181" s="7"/>
       <c r="H181" s="24"/>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A182" s="16">
-        <v>181</v>
+      <c r="A182" s="16" t="s">
+        <v>553</v>
       </c>
       <c r="B182" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="C182" s="16" t="s">
-        <v>121</v>
-      </c>
+      <c r="C182" s="16"/>
       <c r="D182" s="7" t="s">
-        <v>214</v>
+        <v>88</v>
       </c>
       <c r="E182" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F182" s="32" t="s">
-        <v>368</v>
+        <v>12</v>
+      </c>
+      <c r="F182" s="33" t="s">
+        <v>367</v>
       </c>
       <c r="G182" s="7"/>
       <c r="H182" s="24"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A183" s="16">
-        <v>182</v>
+      <c r="A183" s="16" t="s">
+        <v>554</v>
       </c>
       <c r="B183" s="16" t="s">
         <v>297</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="D183" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E183" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F183" s="32" t="s">
-        <v>368</v>
+        <v>25</v>
+      </c>
+      <c r="F183" s="33" t="s">
+        <v>367</v>
       </c>
       <c r="G183" s="7"/>
       <c r="H183" s="24"/>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A184" s="16">
-        <v>183</v>
+      <c r="A184" s="16" t="s">
+        <v>555</v>
       </c>
       <c r="B184" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="C184" s="16"/>
+      <c r="C184" s="16" t="s">
+        <v>139</v>
+      </c>
       <c r="D184" s="7" t="s">
-        <v>87</v>
+        <v>213</v>
       </c>
       <c r="E184" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F184" s="32" t="s">
-        <v>368</v>
+        <v>44</v>
+      </c>
+      <c r="F184" s="33" t="s">
+        <v>367</v>
       </c>
       <c r="G184" s="7"/>
       <c r="H184" s="24"/>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A185" s="16">
-        <v>184</v>
+      <c r="A185" s="16" t="s">
+        <v>556</v>
       </c>
       <c r="B185" s="16" t="s">
         <v>297</v>
       </c>
       <c r="C185" s="16"/>
       <c r="D185" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E185" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="F185" s="32" t="s">
-        <v>368</v>
+        <v>4</v>
+      </c>
+      <c r="F185" s="33" t="s">
+        <v>367</v>
       </c>
       <c r="G185" s="7"/>
       <c r="H185" s="24"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A186" s="16">
-        <v>185</v>
+      <c r="A186" s="16" t="s">
+        <v>557</v>
       </c>
       <c r="B186" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="C186" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D186" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="E186" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="F186" s="32" t="s">
-        <v>368</v>
+      <c r="C186" s="16"/>
+      <c r="D186" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E186" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F186" s="33" t="s">
+        <v>367</v>
       </c>
       <c r="G186" s="7"/>
       <c r="H186" s="24"/>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A187" s="16">
-        <v>186</v>
+      <c r="A187" s="16" t="s">
+        <v>558</v>
       </c>
       <c r="B187" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="C187" s="28"/>
-      <c r="D187" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="E187" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F187" s="32" t="s">
-        <v>369</v>
+      <c r="C187" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="D187" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="E187" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="F187" s="33" t="s">
+        <v>367</v>
       </c>
       <c r="G187" s="7"/>
       <c r="H187" s="24"/>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A188" s="16">
-        <v>187</v>
+      <c r="A188" s="16" t="s">
+        <v>559</v>
       </c>
       <c r="B188" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="C188" s="16" t="s">
-        <v>125</v>
-      </c>
+      <c r="C188" s="28"/>
       <c r="D188" s="7" t="s">
-        <v>190</v>
+        <v>107</v>
       </c>
       <c r="E188" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F188" s="32" t="s">
-        <v>370</v>
+        <v>72</v>
+      </c>
+      <c r="F188" s="33" t="s">
+        <v>368</v>
       </c>
       <c r="G188" s="7"/>
       <c r="H188" s="24"/>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A189" s="16">
-        <v>188</v>
+      <c r="A189" s="16" t="s">
+        <v>560</v>
       </c>
       <c r="B189" s="16" t="s">
         <v>297</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="D189" s="7" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="E189" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F189" s="32" t="s">
-        <v>370</v>
+        <v>59</v>
+      </c>
+      <c r="F189" s="33" t="s">
+        <v>369</v>
       </c>
       <c r="G189" s="7"/>
       <c r="H189" s="24"/>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A190" s="16">
-        <v>189</v>
+      <c r="A190" s="16" t="s">
+        <v>561</v>
       </c>
       <c r="B190" s="16" t="s">
         <v>297</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="D190" s="7" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="E190" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="F190" s="32" t="s">
-        <v>370</v>
+        <v>5</v>
+      </c>
+      <c r="F190" s="33" t="s">
+        <v>369</v>
       </c>
       <c r="G190" s="7"/>
       <c r="H190" s="24"/>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A191" s="16">
-        <v>190</v>
+      <c r="A191" s="16" t="s">
+        <v>562</v>
       </c>
       <c r="B191" s="16" t="s">
         <v>297</v>
@@ -5948,317 +6534,744 @@
         <v>127</v>
       </c>
       <c r="D191" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E191" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F191" s="32" t="s">
-        <v>370</v>
+        <v>60</v>
+      </c>
+      <c r="F191" s="33" t="s">
+        <v>369</v>
       </c>
       <c r="G191" s="7"/>
       <c r="H191" s="24"/>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A192" s="16">
-        <v>191</v>
+      <c r="A192" s="16" t="s">
+        <v>563</v>
       </c>
       <c r="B192" s="16" t="s">
         <v>297</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D192" s="7" t="s">
-        <v>152</v>
+        <v>194</v>
       </c>
       <c r="E192" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F192" s="32" t="s">
-        <v>370</v>
+        <v>5</v>
+      </c>
+      <c r="F192" s="33" t="s">
+        <v>369</v>
       </c>
       <c r="G192" s="7"/>
       <c r="H192" s="24"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A193" s="16">
-        <v>192</v>
+      <c r="A193" s="16" t="s">
+        <v>564</v>
       </c>
       <c r="B193" s="16" t="s">
         <v>297</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="D193" s="7" t="s">
-        <v>195</v>
+        <v>152</v>
       </c>
       <c r="E193" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F193" s="32" t="s">
-        <v>371</v>
+      <c r="F193" s="33" t="s">
+        <v>369</v>
       </c>
       <c r="G193" s="7"/>
       <c r="H193" s="24"/>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A194" s="16">
-        <v>193</v>
+      <c r="A194" s="16" t="s">
+        <v>565</v>
       </c>
       <c r="B194" s="16" t="s">
         <v>297</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="D194" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E194" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F194" s="32" t="s">
-        <v>372</v>
+      <c r="F194" s="33" t="s">
+        <v>370</v>
       </c>
       <c r="G194" s="7"/>
       <c r="H194" s="24"/>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A195" s="16">
-        <v>194</v>
+      <c r="A195" s="16" t="s">
+        <v>566</v>
       </c>
       <c r="B195" s="16" t="s">
         <v>297</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D195" s="7" t="s">
-        <v>266</v>
+        <v>196</v>
       </c>
       <c r="E195" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="F195" s="32" t="s">
-        <v>373</v>
+        <v>20</v>
+      </c>
+      <c r="F195" s="33">
+        <v>1011</v>
       </c>
       <c r="G195" s="7"/>
       <c r="H195" s="24"/>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A196" s="16">
-        <v>195</v>
+      <c r="A196" s="16" t="s">
+        <v>567</v>
       </c>
       <c r="B196" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="C196" s="16"/>
+      <c r="C196" s="16" t="s">
+        <v>136</v>
+      </c>
       <c r="D196" s="7" t="s">
-        <v>85</v>
+        <v>266</v>
       </c>
       <c r="E196" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F196" s="32" t="s">
-        <v>373</v>
+        <v>61</v>
+      </c>
+      <c r="F196" s="33" t="s">
+        <v>371</v>
       </c>
       <c r="G196" s="7"/>
       <c r="H196" s="24"/>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A197" s="16">
-        <v>196</v>
+      <c r="A197" s="16" t="s">
+        <v>568</v>
       </c>
       <c r="B197" s="16" t="s">
-        <v>228</v>
+        <v>297</v>
       </c>
       <c r="C197" s="16"/>
       <c r="D197" s="7" t="s">
-        <v>229</v>
+        <v>85</v>
       </c>
       <c r="E197" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F197" s="32" t="s">
-        <v>373</v>
+      <c r="F197" s="33" t="s">
+        <v>371</v>
       </c>
       <c r="G197" s="7"/>
       <c r="H197" s="24"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A198" s="16">
-        <v>197</v>
+      <c r="A198" s="16" t="s">
+        <v>569</v>
       </c>
       <c r="B198" s="16" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="C198" s="16"/>
       <c r="D198" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E198" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F198" s="32" t="s">
-        <v>373</v>
+      <c r="F198" s="33" t="s">
+        <v>371</v>
       </c>
       <c r="G198" s="7"/>
       <c r="H198" s="24"/>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A199" s="16">
-        <v>198</v>
+      <c r="A199" s="16" t="s">
+        <v>570</v>
       </c>
       <c r="B199" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C199" s="16" t="s">
-        <v>130</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="C199" s="16"/>
       <c r="D199" s="7" t="s">
-        <v>184</v>
+        <v>227</v>
       </c>
       <c r="E199" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="F199" s="32" t="s">
-        <v>374</v>
+        <v>36</v>
+      </c>
+      <c r="F199" s="33" t="s">
+        <v>371</v>
       </c>
       <c r="G199" s="7"/>
       <c r="H199" s="24"/>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A200" s="16">
-        <v>199</v>
+      <c r="A200" s="16" t="s">
+        <v>571</v>
       </c>
       <c r="B200" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="C200" s="16"/>
+      <c r="C200" s="16" t="s">
+        <v>130</v>
+      </c>
       <c r="D200" s="7" t="s">
-        <v>106</v>
+        <v>184</v>
       </c>
       <c r="E200" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F200" s="32" t="s">
-        <v>374</v>
+        <v>55</v>
+      </c>
+      <c r="F200" s="33" t="s">
+        <v>372</v>
       </c>
       <c r="G200" s="7"/>
       <c r="H200" s="24"/>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A201" s="16">
-        <v>200</v>
+      <c r="A201" s="16" t="s">
+        <v>572</v>
       </c>
       <c r="B201" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="C201" s="28"/>
+      <c r="C201" s="16"/>
       <c r="D201" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E201" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F201" s="32" t="s">
-        <v>375</v>
+        <v>25</v>
+      </c>
+      <c r="F201" s="33" t="s">
+        <v>372</v>
       </c>
       <c r="G201" s="7"/>
       <c r="H201" s="24"/>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A202" s="16">
-        <v>201</v>
+      <c r="A202" s="16" t="s">
+        <v>573</v>
       </c>
       <c r="B202" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="C202" s="16"/>
+      <c r="C202" s="28"/>
       <c r="D202" s="7" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="E202" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="F202" s="32" t="s">
-        <v>376</v>
+        <v>72</v>
+      </c>
+      <c r="F202" s="33" t="s">
+        <v>373</v>
       </c>
       <c r="G202" s="7"/>
       <c r="H202" s="24"/>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A203" s="16">
-        <v>202</v>
+      <c r="A203" s="16" t="s">
+        <v>574</v>
       </c>
       <c r="B203" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="C203" s="16" t="s">
+      <c r="C203" s="16"/>
+      <c r="D203" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E203" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F203" s="33" t="s">
+        <v>374</v>
+      </c>
+      <c r="G203" s="7"/>
+      <c r="H203" s="24"/>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A204" s="16" t="s">
+        <v>575</v>
+      </c>
+      <c r="B204" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="C204" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="D203" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="E203" s="13" t="s">
-        <v>395</v>
-      </c>
-      <c r="F203" s="32" t="s">
-        <v>384</v>
-      </c>
-      <c r="G203" s="7" t="s">
+      <c r="D204" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="E204" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="F204" s="33">
+        <v>500</v>
+      </c>
+      <c r="G204" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="H204" s="24" t="s">
         <v>382</v>
       </c>
-      <c r="H203" s="24" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A204" s="16">
-        <v>203</v>
-      </c>
-      <c r="B204" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C204" s="16"/>
-      <c r="D204" s="7" t="s">
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A205" s="16" t="s">
+        <v>581</v>
+      </c>
+      <c r="B205" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="C205" s="16"/>
+      <c r="D205" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="E204" s="7" t="s">
+      <c r="E205" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F204" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="G204" s="7"/>
-      <c r="H204" s="24"/>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B205" s="17"/>
-      <c r="C205" s="17"/>
-      <c r="D205" s="21"/>
-      <c r="E205" s="22"/>
-      <c r="F205" s="34"/>
+      <c r="F205" s="33" t="s">
+        <v>375</v>
+      </c>
+      <c r="G205" s="7"/>
+      <c r="H205" s="24"/>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B206" s="17"/>
       <c r="C206" s="17"/>
       <c r="D206" s="21"/>
       <c r="E206" s="22"/>
-      <c r="F206" s="34"/>
+      <c r="F206" s="38"/>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B207" s="16"/>
+      <c r="B207" s="17"/>
       <c r="C207" s="17"/>
       <c r="D207" s="21"/>
       <c r="E207" s="22"/>
-      <c r="F207" s="34"/>
+      <c r="F207" s="38"/>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B208" s="16"/>
+      <c r="C208" s="17"/>
+      <c r="D208" s="21"/>
+      <c r="E208" s="22"/>
+      <c r="F208" s="38"/>
+    </row>
+    <row r="209" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F209" s="34"/>
+    </row>
+    <row r="210" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F210" s="34"/>
+    </row>
+    <row r="211" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F211" s="34"/>
+    </row>
+    <row r="212" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F212" s="34"/>
+    </row>
+    <row r="213" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F213" s="34"/>
+    </row>
+    <row r="214" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F214" s="34"/>
+    </row>
+    <row r="215" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F215" s="34"/>
+    </row>
+    <row r="216" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F216" s="34"/>
+    </row>
+    <row r="217" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F217" s="34"/>
+    </row>
+    <row r="218" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F218" s="34"/>
+    </row>
+    <row r="219" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F219" s="34"/>
+    </row>
+    <row r="220" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F220" s="34"/>
+    </row>
+    <row r="221" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F221" s="34"/>
+    </row>
+    <row r="222" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F222" s="34"/>
+    </row>
+    <row r="223" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F223" s="34"/>
+    </row>
+    <row r="224" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F224" s="34"/>
+    </row>
+    <row r="225" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F225" s="34"/>
+    </row>
+    <row r="226" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F226" s="34"/>
+    </row>
+    <row r="227" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F227" s="34"/>
+    </row>
+    <row r="228" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F228" s="34"/>
+    </row>
+    <row r="229" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F229" s="34"/>
+    </row>
+    <row r="230" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F230" s="34"/>
+    </row>
+    <row r="231" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F231" s="34"/>
+    </row>
+    <row r="232" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F232" s="34"/>
+    </row>
+    <row r="233" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F233" s="34"/>
+    </row>
+    <row r="234" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F234" s="34"/>
+    </row>
+    <row r="235" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F235" s="34"/>
+    </row>
+    <row r="236" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F236" s="34"/>
+    </row>
+    <row r="237" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F237" s="34"/>
+    </row>
+    <row r="238" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F238" s="34"/>
+    </row>
+    <row r="239" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F239" s="34"/>
+    </row>
+    <row r="240" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F240" s="34"/>
+    </row>
+    <row r="241" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F241" s="34"/>
+    </row>
+    <row r="242" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F242" s="34"/>
+    </row>
+    <row r="243" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F243" s="34"/>
+    </row>
+    <row r="244" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F244" s="34"/>
+    </row>
+    <row r="245" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F245" s="34"/>
+    </row>
+    <row r="246" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F246" s="34"/>
+    </row>
+    <row r="247" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F247" s="34"/>
+    </row>
+    <row r="248" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F248" s="34"/>
+    </row>
+    <row r="249" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F249" s="34"/>
+    </row>
+    <row r="250" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F250" s="34"/>
+    </row>
+    <row r="251" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F251" s="34"/>
+    </row>
+    <row r="252" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F252" s="34"/>
+    </row>
+    <row r="253" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F253" s="34"/>
+    </row>
+    <row r="254" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F254" s="34"/>
+    </row>
+    <row r="255" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F255" s="34"/>
+    </row>
+    <row r="256" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F256" s="34"/>
+    </row>
+    <row r="257" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F257" s="34"/>
+    </row>
+    <row r="258" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F258" s="34"/>
+    </row>
+    <row r="259" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F259" s="34"/>
+    </row>
+    <row r="260" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F260" s="34"/>
+    </row>
+    <row r="261" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F261" s="34"/>
+    </row>
+    <row r="262" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F262" s="34"/>
+    </row>
+    <row r="263" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F263" s="34"/>
+    </row>
+    <row r="264" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F264" s="34"/>
+    </row>
+    <row r="265" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F265" s="34"/>
+    </row>
+    <row r="266" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F266" s="34"/>
+    </row>
+    <row r="267" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F267" s="34"/>
+    </row>
+    <row r="268" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F268" s="34"/>
+    </row>
+    <row r="269" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F269" s="34"/>
+    </row>
+    <row r="270" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F270" s="34"/>
+    </row>
+    <row r="271" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F271" s="34"/>
+    </row>
+    <row r="272" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F272" s="34"/>
+    </row>
+    <row r="273" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F273" s="34"/>
+    </row>
+    <row r="274" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F274" s="34"/>
+    </row>
+    <row r="275" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F275" s="34"/>
+    </row>
+    <row r="276" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F276" s="34"/>
+    </row>
+    <row r="277" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F277" s="34"/>
+    </row>
+    <row r="278" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F278" s="34"/>
+    </row>
+    <row r="279" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F279" s="34"/>
+    </row>
+    <row r="280" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F280" s="34"/>
+    </row>
+    <row r="281" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F281" s="34"/>
+    </row>
+    <row r="282" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F282" s="34"/>
+    </row>
+    <row r="283" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F283" s="34"/>
+    </row>
+    <row r="284" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F284" s="34"/>
+    </row>
+    <row r="285" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F285" s="34"/>
+    </row>
+    <row r="286" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F286" s="34"/>
+    </row>
+    <row r="287" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F287" s="34"/>
+    </row>
+    <row r="288" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F288" s="34"/>
+    </row>
+    <row r="289" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F289" s="34"/>
+    </row>
+    <row r="290" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F290" s="34"/>
+    </row>
+    <row r="291" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F291" s="34"/>
+    </row>
+    <row r="292" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F292" s="34"/>
+    </row>
+    <row r="293" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F293" s="34"/>
+    </row>
+    <row r="294" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F294" s="34"/>
+    </row>
+    <row r="295" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F295" s="34"/>
+    </row>
+    <row r="296" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F296" s="34"/>
+    </row>
+    <row r="297" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F297" s="34"/>
+    </row>
+    <row r="298" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F298" s="34"/>
+    </row>
+    <row r="299" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F299" s="34"/>
+    </row>
+    <row r="300" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F300" s="34"/>
+    </row>
+    <row r="301" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F301" s="34"/>
+    </row>
+    <row r="302" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F302" s="34"/>
+    </row>
+    <row r="303" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F303" s="34"/>
+    </row>
+    <row r="304" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F304" s="34"/>
+    </row>
+    <row r="305" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F305" s="34"/>
+    </row>
+    <row r="306" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F306" s="34"/>
+    </row>
+    <row r="307" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F307" s="34"/>
+    </row>
+    <row r="308" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F308" s="34"/>
+    </row>
+    <row r="309" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F309" s="34"/>
+    </row>
+    <row r="310" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F310" s="34"/>
+    </row>
+    <row r="311" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F311" s="34"/>
+    </row>
+    <row r="312" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F312" s="34"/>
+    </row>
+    <row r="313" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F313" s="34"/>
+    </row>
+    <row r="314" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F314" s="34"/>
+    </row>
+    <row r="315" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F315" s="34"/>
+    </row>
+    <row r="316" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F316" s="34"/>
+    </row>
+    <row r="317" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F317" s="34"/>
+    </row>
+    <row r="318" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F318" s="34"/>
+    </row>
+    <row r="319" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F319" s="34"/>
+    </row>
+    <row r="320" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F320" s="34"/>
+    </row>
+    <row r="321" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F321" s="34"/>
+    </row>
+    <row r="322" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F322" s="34"/>
+    </row>
+    <row r="323" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F323" s="34"/>
+    </row>
+    <row r="324" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F324" s="34"/>
+    </row>
+    <row r="325" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F325" s="34"/>
+    </row>
+    <row r="326" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F326" s="34"/>
+    </row>
+    <row r="327" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F327" s="34"/>
+    </row>
+    <row r="328" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F328" s="34"/>
+    </row>
+    <row r="329" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F329" s="34"/>
+    </row>
+    <row r="330" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F330" s="34"/>
+    </row>
+    <row r="331" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F331" s="34"/>
+    </row>
+    <row r="332" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F332" s="34"/>
+    </row>
+    <row r="333" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F333" s="34"/>
+    </row>
+    <row r="334" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F334" s="34"/>
+    </row>
+    <row r="335" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F335" s="34"/>
+    </row>
+    <row r="336" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F336" s="34"/>
+    </row>
+    <row r="337" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F337" s="34"/>
+    </row>
+    <row r="338" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F338" s="34"/>
+    </row>
+    <row r="339" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F339" s="34"/>
+    </row>
+    <row r="340" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F340" s="34"/>
+    </row>
+    <row r="341" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F341" s="34"/>
+    </row>
+    <row r="342" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F342" s="34"/>
+    </row>
+    <row r="343" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F343" s="34"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:H207">
-    <sortState ref="B2:I201">
+  <autoFilter ref="B1:H208">
+    <sortState ref="B2:H207">
       <sortCondition descending="1" ref="F1:F201"/>
     </sortState>
   </autoFilter>
@@ -6281,7 +7294,7 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E1" s="36"/>
+      <c r="E1" s="32"/>
     </row>
   </sheetData>
   <sortState ref="F11:G17">

--- a/src/sourcefiles/Ashram-Donors.xlsx
+++ b/src/sourcefiles/Ashram-Donors.xlsx
@@ -17,14 +17,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$H$208</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$H$206</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="593">
   <si>
     <t>NAME</t>
   </si>
@@ -254,9 +254,6 @@
     <t>Bhavani Nagar(Nacharam)</t>
   </si>
   <si>
-    <t>Kharman Ghat</t>
-  </si>
-  <si>
     <t>Moscow</t>
   </si>
   <si>
@@ -674,9 +671,6 @@
     <t>Srinivasa Deekshithulu</t>
   </si>
   <si>
-    <t>Acharya Sathrughna Kumar &amp; Bros</t>
-  </si>
-  <si>
     <t>Sudarsana Bhattacharyulu</t>
   </si>
   <si>
@@ -1776,35 +1770,68 @@
   </si>
   <si>
     <t>12/281</t>
+  </si>
+  <si>
+    <t>20/11/2022</t>
+  </si>
+  <si>
+    <t>289</t>
+  </si>
+  <si>
+    <t>Kumara Lakshmana Acharyulu &amp; Bros</t>
+  </si>
+  <si>
+    <t>290, 291</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>V Satyanarayana Charyulu</t>
+  </si>
+  <si>
+    <t>Meerpet</t>
+  </si>
+  <si>
+    <t>Bodduppal</t>
+  </si>
+  <si>
+    <t>17/01/2023</t>
+  </si>
+  <si>
+    <t>292</t>
+  </si>
+  <si>
+    <t>08/01/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="&quot;₹&quot;\ #,##0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Gautami"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Gautami"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Gautami"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1812,7 +1839,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Gautami"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1895,7 +1922,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1941,9 +1968,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1988,9 +2012,6 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2000,7 +2021,7 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2309,4398 +2330,4412 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H343"/>
+  <dimension ref="A1:H206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="F205" sqref="F205"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="A207" sqref="A207:XFD473"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="80.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.88671875" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" style="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="80.09765625" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.69921875" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.296875" style="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.69921875" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.59765625" style="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8">
       <c r="A1" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="F1" s="35" t="s">
+        <v>285</v>
+      </c>
+      <c r="F1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="30" t="s">
-        <v>325</v>
-      </c>
-      <c r="H1" s="29" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G1" s="29" t="s">
+        <v>323</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1">
       <c r="A2" s="16">
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C2" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>114</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>115</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="33" t="s">
-        <v>335</v>
+      <c r="F2" s="32" t="s">
+        <v>333</v>
       </c>
       <c r="G2" s="14"/>
-      <c r="H2" s="23"/>
-    </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H2" s="22"/>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1">
       <c r="A3" s="16">
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="F3" s="32" t="s">
         <v>334</v>
       </c>
-      <c r="F3" s="33" t="s">
-        <v>336</v>
-      </c>
       <c r="G3" s="14"/>
-      <c r="H3" s="23"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H3" s="22"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="16">
         <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C4" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="33" t="s">
-        <v>337</v>
+      <c r="F4" s="32" t="s">
+        <v>335</v>
       </c>
       <c r="G4" s="7"/>
-      <c r="H4" s="24"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H4" s="23"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="16">
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="33" t="s">
-        <v>338</v>
+      <c r="F5" s="32" t="s">
+        <v>336</v>
       </c>
       <c r="G5" s="7"/>
-      <c r="H5" s="24"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H5" s="23"/>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="16">
         <v>5</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>145</v>
+        <v>584</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>339</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="24"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+      <c r="F6" s="32">
+        <v>100132</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="16">
         <v>6</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>340</v>
+        <v>16</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>337</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="H7" s="24"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H7" s="23"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="16">
         <v>7</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="33" t="s">
-        <v>340</v>
+      <c r="F8" s="32" t="s">
+        <v>338</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="H8" s="24"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H8" s="23"/>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="16">
         <v>8</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>233</v>
+        <v>146</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>340</v>
+        <v>4</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>338</v>
       </c>
       <c r="G9" s="7"/>
-      <c r="H9" s="24"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H9" s="23"/>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="16">
         <v>9</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C10" s="16"/>
+        <v>295</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>119</v>
+      </c>
       <c r="D10" s="7" t="s">
-        <v>92</v>
+        <v>231</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="33" t="s">
-        <v>340</v>
+        <v>5</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>338</v>
       </c>
       <c r="G10" s="7"/>
-      <c r="H10" s="24"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H10" s="23"/>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="16">
         <v>10</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>114</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="C11" s="16"/>
       <c r="D11" s="7" t="s">
-        <v>232</v>
+        <v>91</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>340</v>
+        <v>6</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>338</v>
       </c>
       <c r="G11" s="7"/>
-      <c r="H11" s="24"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H11" s="23"/>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="16">
         <v>11</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>397</v>
+        <v>295</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>340</v>
+        <v>7</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>338</v>
       </c>
       <c r="G12" s="7"/>
-      <c r="H12" s="24"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H12" s="23"/>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="16">
         <v>12</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>297</v>
+        <v>395</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>169</v>
+        <v>214</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="33" t="s">
-        <v>340</v>
+        <v>8</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>338</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="H13" s="24"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H13" s="23"/>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="16">
         <v>13</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>396</v>
+        <v>295</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>231</v>
+        <v>168</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="F14" s="33" t="s">
-        <v>340</v>
+        <v>9</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>338</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="H14" s="24"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H14" s="23"/>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="16">
         <v>14</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="33" t="s">
-        <v>341</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="H15" s="24" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>338</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="23"/>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="16">
         <v>15</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>297</v>
+        <v>394</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="F16" s="33" t="s">
-        <v>342</v>
-      </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="24"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>339</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="16">
         <v>16</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="33" t="s">
-        <v>342</v>
+      <c r="F17" s="32" t="s">
+        <v>340</v>
       </c>
       <c r="G17" s="7"/>
-      <c r="H17" s="24"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H17" s="23"/>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="16">
         <v>17</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="33" t="s">
-        <v>343</v>
+      <c r="F18" s="32" t="s">
+        <v>341</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="H18" s="24" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+        <v>326</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="16">
         <v>18</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E19" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="F19" s="33" t="s">
-        <v>344</v>
+      <c r="F19" s="32" t="s">
+        <v>342</v>
       </c>
       <c r="G19" s="7"/>
-      <c r="H19" s="24"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H19" s="23"/>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="16">
         <v>19</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E20" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="33" t="s">
-        <v>344</v>
+      <c r="F20" s="32" t="s">
+        <v>342</v>
       </c>
       <c r="G20" s="7"/>
-      <c r="H20" s="24"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H20" s="23"/>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="16">
         <v>20</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E21" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="33" t="s">
-        <v>344</v>
+      <c r="F21" s="32" t="s">
+        <v>342</v>
       </c>
       <c r="G21" s="7"/>
-      <c r="H21" s="24"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H21" s="23"/>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="16">
         <v>21</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="33" t="s">
-        <v>344</v>
+      <c r="F22" s="32" t="s">
+        <v>342</v>
       </c>
       <c r="G22" s="7"/>
-      <c r="H22" s="24"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H22" s="23"/>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="16">
         <v>22</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E23" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="33" t="s">
-        <v>344</v>
+      <c r="F23" s="32" t="s">
+        <v>342</v>
       </c>
       <c r="G23" s="7"/>
-      <c r="H23" s="24"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H23" s="23"/>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="16">
         <v>23</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E24" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F24" s="33" t="s">
-        <v>344</v>
+      <c r="F24" s="32" t="s">
+        <v>342</v>
       </c>
       <c r="G24" s="7"/>
-      <c r="H24" s="24"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H24" s="23"/>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="16">
         <v>24</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="F25" s="33" t="s">
-        <v>344</v>
+        <v>112</v>
+      </c>
+      <c r="F25" s="32" t="s">
+        <v>342</v>
       </c>
       <c r="G25" s="7"/>
-      <c r="H25" s="24"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H25" s="23"/>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="16">
         <v>25</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E26" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="F26" s="33" t="s">
-        <v>344</v>
+      <c r="F26" s="32" t="s">
+        <v>342</v>
       </c>
       <c r="G26" s="7"/>
-      <c r="H26" s="24"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H26" s="23"/>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="16">
         <v>26</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E27" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F27" s="33" t="s">
-        <v>344</v>
+      <c r="F27" s="32" t="s">
+        <v>342</v>
       </c>
       <c r="G27" s="7"/>
-      <c r="H27" s="24"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H27" s="23"/>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="16">
         <v>27</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E28" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F28" s="33" t="s">
-        <v>344</v>
+      <c r="F28" s="32" t="s">
+        <v>342</v>
       </c>
       <c r="G28" s="7"/>
-      <c r="H28" s="24"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H28" s="23"/>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="16">
         <v>28</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="F29" s="33" t="s">
-        <v>344</v>
+        <v>76</v>
+      </c>
+      <c r="F29" s="32" t="s">
+        <v>342</v>
       </c>
       <c r="G29" s="7"/>
-      <c r="H29" s="24"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H29" s="23"/>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="16" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E30" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F30" s="33" t="s">
+      <c r="F30" s="32" t="s">
+        <v>398</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="H30" s="23" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="16" t="s">
         <v>400</v>
       </c>
-      <c r="G30" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="H30" s="24" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="16" t="s">
-        <v>402</v>
-      </c>
       <c r="B31" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E31" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="33" t="s">
-        <v>345</v>
+      <c r="F31" s="32" t="s">
+        <v>343</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="H31" s="24" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+        <v>326</v>
+      </c>
+      <c r="H31" s="23" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="C32" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="D32" s="21" t="s">
-        <v>306</v>
-      </c>
-      <c r="E32" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="E32" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="F32" s="33" t="s">
-        <v>576</v>
+      <c r="F32" s="32" t="s">
+        <v>574</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="H32" s="24" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+        <v>396</v>
+      </c>
+      <c r="H32" s="23" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="16" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E33" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F33" s="33" t="s">
-        <v>346</v>
+      <c r="F33" s="32" t="s">
+        <v>344</v>
       </c>
       <c r="G33" s="7"/>
-      <c r="H33" s="24"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H33" s="23"/>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="16" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="F34" s="33" t="s">
-        <v>346</v>
+        <v>77</v>
+      </c>
+      <c r="F34" s="32" t="s">
+        <v>344</v>
       </c>
       <c r="G34" s="7"/>
-      <c r="H34" s="24"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H34" s="23"/>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="16" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E35" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F35" s="33" t="s">
-        <v>346</v>
+      <c r="F35" s="32" t="s">
+        <v>344</v>
       </c>
       <c r="G35" s="7"/>
-      <c r="H35" s="24"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H35" s="23"/>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="16" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E36" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F36" s="33" t="s">
-        <v>346</v>
+      <c r="F36" s="32" t="s">
+        <v>344</v>
       </c>
       <c r="G36" s="7"/>
-      <c r="H36" s="24"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H36" s="23"/>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="16" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E37" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="33" t="s">
-        <v>346</v>
+      <c r="F37" s="32" t="s">
+        <v>344</v>
       </c>
       <c r="G37" s="7"/>
-      <c r="H37" s="24"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H37" s="23"/>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="16" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E38" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F38" s="33" t="s">
-        <v>346</v>
+      <c r="F38" s="32" t="s">
+        <v>344</v>
       </c>
       <c r="G38" s="7"/>
-      <c r="H38" s="24"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H38" s="23"/>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="16" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E39" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F39" s="33" t="s">
-        <v>346</v>
+      <c r="F39" s="32" t="s">
+        <v>344</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="H39" s="24" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+        <v>392</v>
+      </c>
+      <c r="H39" s="23" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="16" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E40" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F40" s="33" t="s">
-        <v>347</v>
+      <c r="F40" s="32" t="s">
+        <v>345</v>
       </c>
       <c r="G40" s="7"/>
-      <c r="H40" s="24"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H40" s="23"/>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="16" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E41" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F41" s="33" t="s">
-        <v>348</v>
+      <c r="F41" s="32" t="s">
+        <v>346</v>
       </c>
       <c r="G41" s="7"/>
-      <c r="H41" s="24"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H41" s="23"/>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="16" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C42" s="16"/>
       <c r="D42" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E42" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F42" s="33" t="s">
-        <v>348</v>
+      <c r="F42" s="32" t="s">
+        <v>346</v>
       </c>
       <c r="G42" s="7"/>
-      <c r="H42" s="24"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H42" s="23"/>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="16" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E43" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="F43" s="33" t="s">
-        <v>348</v>
+      <c r="F43" s="32" t="s">
+        <v>346</v>
       </c>
       <c r="G43" s="7"/>
-      <c r="H43" s="24"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H43" s="23"/>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="16" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E44" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="F44" s="33" t="s">
-        <v>348</v>
+      <c r="F44" s="32" t="s">
+        <v>346</v>
       </c>
       <c r="G44" s="7"/>
-      <c r="H44" s="24"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H44" s="23"/>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="16" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C45" s="19" t="s">
-        <v>132</v>
+        <v>295</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>131</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E45" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F45" s="33" t="s">
-        <v>348</v>
+      <c r="F45" s="32" t="s">
+        <v>346</v>
       </c>
       <c r="G45" s="7"/>
-      <c r="H45" s="24"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H45" s="23"/>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="16" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E46" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F46" s="33" t="s">
-        <v>348</v>
+      <c r="F46" s="32" t="s">
+        <v>346</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="H46" s="24" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+        <v>326</v>
+      </c>
+      <c r="H46" s="23" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="16" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C47" s="19" t="s">
-        <v>124</v>
+        <v>295</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>123</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E47" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F47" s="33" t="s">
-        <v>348</v>
+      <c r="F47" s="32" t="s">
+        <v>346</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="H47" s="24" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+        <v>326</v>
+      </c>
+      <c r="H47" s="23" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="16" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E48" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F48" s="33" t="s">
-        <v>348</v>
+      <c r="F48" s="32" t="s">
+        <v>346</v>
       </c>
       <c r="G48" s="7"/>
-      <c r="H48" s="24"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H48" s="23"/>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="16" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E49" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F49" s="33" t="s">
-        <v>348</v>
+      <c r="F49" s="32" t="s">
+        <v>346</v>
       </c>
       <c r="G49" s="7"/>
-      <c r="H49" s="24"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H49" s="23"/>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="16" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E50" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F50" s="33" t="s">
+      <c r="F50" s="32" t="s">
+        <v>346</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="H50" s="23" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="16" t="s">
+        <v>420</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F51" s="32" t="s">
+        <v>347</v>
+      </c>
+      <c r="G51" s="7"/>
+      <c r="H51" s="23"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="16" t="s">
+        <v>421</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F52" s="32">
+        <v>15000</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="H52" s="23" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="16" t="s">
+        <v>422</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="32" t="s">
         <v>348</v>
       </c>
-      <c r="G50" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="H50" s="24" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A51" s="16" t="s">
-        <v>422</v>
-      </c>
-      <c r="B51" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="E51" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="F51" s="33" t="s">
+      <c r="G53" s="7"/>
+      <c r="H53" s="23"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F54" s="32">
+        <v>10500</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="H54" s="23" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="16" t="s">
+        <v>424</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F55" s="32" t="s">
         <v>349</v>
       </c>
-      <c r="G51" s="7"/>
-      <c r="H51" s="24"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A52" s="16" t="s">
-        <v>423</v>
-      </c>
-      <c r="B52" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="E52" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F52" s="33" t="s">
-        <v>350</v>
-      </c>
-      <c r="G52" s="7"/>
-      <c r="H52" s="24"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A53" s="16" t="s">
-        <v>424</v>
-      </c>
-      <c r="B53" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="C53" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F53" s="33">
-        <v>10500</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="H53" s="24" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A54" s="16" t="s">
+      <c r="G55" s="7"/>
+      <c r="H55" s="23"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="16" t="s">
         <v>425</v>
       </c>
-      <c r="B54" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C54" s="16" t="s">
+      <c r="B56" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F56" s="32" t="s">
+        <v>349</v>
+      </c>
+      <c r="G56" s="7"/>
+      <c r="H56" s="23"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" s="32" t="s">
+        <v>349</v>
+      </c>
+      <c r="G57" s="7"/>
+      <c r="H57" s="23"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="16" t="s">
+        <v>427</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F58" s="32" t="s">
+        <v>349</v>
+      </c>
+      <c r="G58" s="7"/>
+      <c r="H58" s="23"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="16" t="s">
+        <v>428</v>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F59" s="32" t="s">
+        <v>349</v>
+      </c>
+      <c r="G59" s="7"/>
+      <c r="H59" s="23"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="16" t="s">
+        <v>429</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F60" s="32" t="s">
+        <v>349</v>
+      </c>
+      <c r="G60" s="7"/>
+      <c r="H60" s="23"/>
+    </row>
+    <row r="61" spans="1:8" s="4" customFormat="1">
+      <c r="A61" s="16" t="s">
+        <v>430</v>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C61" s="16"/>
+      <c r="D61" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" s="32" t="s">
+        <v>349</v>
+      </c>
+      <c r="G61" s="7"/>
+      <c r="H61" s="23"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="16" t="s">
+        <v>431</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C62" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="D54" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="E54" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F54" s="33" t="s">
-        <v>351</v>
-      </c>
-      <c r="G54" s="7"/>
-      <c r="H54" s="24"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A55" s="16" t="s">
-        <v>426</v>
-      </c>
-      <c r="B55" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C55" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="E55" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F55" s="33" t="s">
-        <v>351</v>
-      </c>
-      <c r="G55" s="7"/>
-      <c r="H55" s="24"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A56" s="16" t="s">
-        <v>427</v>
-      </c>
-      <c r="B56" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="E56" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F56" s="33" t="s">
-        <v>351</v>
-      </c>
-      <c r="G56" s="7"/>
-      <c r="H56" s="24"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A57" s="16" t="s">
-        <v>428</v>
-      </c>
-      <c r="B57" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C57" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="E57" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F57" s="33" t="s">
-        <v>351</v>
-      </c>
-      <c r="G57" s="7"/>
-      <c r="H57" s="24"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A58" s="16" t="s">
-        <v>429</v>
-      </c>
-      <c r="B58" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C58" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="E58" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F58" s="33" t="s">
-        <v>351</v>
-      </c>
-      <c r="G58" s="7"/>
-      <c r="H58" s="24"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A59" s="16" t="s">
-        <v>430</v>
-      </c>
-      <c r="B59" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C59" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="E59" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F59" s="33" t="s">
-        <v>351</v>
-      </c>
-      <c r="G59" s="7"/>
-      <c r="H59" s="24"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A60" s="16" t="s">
-        <v>431</v>
-      </c>
-      <c r="B60" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C60" s="16"/>
-      <c r="D60" s="7" t="s">
+      <c r="D62" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E62" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E60" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F60" s="33" t="s">
-        <v>351</v>
-      </c>
-      <c r="G60" s="7"/>
-      <c r="H60" s="24"/>
-    </row>
-    <row r="61" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="16" t="s">
+      <c r="F62" s="32" t="s">
+        <v>349</v>
+      </c>
+      <c r="G62" s="7"/>
+      <c r="H62" s="23"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="16" t="s">
         <v>432</v>
       </c>
-      <c r="B61" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C61" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="E61" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="F61" s="33" t="s">
-        <v>351</v>
-      </c>
-      <c r="G61" s="7"/>
-      <c r="H61" s="24"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A62" s="16" t="s">
-        <v>433</v>
-      </c>
-      <c r="B62" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C62" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="E62" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F62" s="33" t="s">
-        <v>351</v>
-      </c>
-      <c r="G62" s="7"/>
-      <c r="H62" s="24"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A63" s="16" t="s">
-        <v>434</v>
-      </c>
-      <c r="B63" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="C63" s="19" t="s">
-        <v>114</v>
+      <c r="B63" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C63" s="18" t="s">
+        <v>133</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E63" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F63" s="33" t="s">
-        <v>351</v>
+      <c r="F63" s="32" t="s">
+        <v>349</v>
       </c>
       <c r="G63" s="7"/>
-      <c r="H63" s="24"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H63" s="23"/>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="16" t="s">
-        <v>435</v>
-      </c>
-      <c r="B64" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="C64" s="19" t="s">
-        <v>128</v>
+        <v>433</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>113</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E64" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F64" s="33" t="s">
-        <v>351</v>
-      </c>
-      <c r="G64" s="31"/>
-      <c r="H64" s="25"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+      <c r="F64" s="32" t="s">
+        <v>349</v>
+      </c>
+      <c r="G64" s="7"/>
+      <c r="H64" s="23"/>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="16" t="s">
-        <v>436</v>
-      </c>
-      <c r="B65" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="C65" s="19" t="s">
-        <v>114</v>
+        <v>434</v>
+      </c>
+      <c r="B65" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="C65" s="18" t="s">
+        <v>127</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E65" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F65" s="33" t="s">
+      <c r="F65" s="32" t="s">
+        <v>349</v>
+      </c>
+      <c r="G65" s="30"/>
+      <c r="H65" s="24"/>
+    </row>
+    <row r="66" spans="1:8" s="2" customFormat="1">
+      <c r="A66" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="C66" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F66" s="32" t="s">
+        <v>349</v>
+      </c>
+      <c r="G66" s="7"/>
+      <c r="H66" s="23"/>
+    </row>
+    <row r="67" spans="1:8" s="2" customFormat="1">
+      <c r="A67" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="B67" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="C67" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="E67" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F67" s="32" t="s">
+        <v>349</v>
+      </c>
+      <c r="G67" s="7"/>
+      <c r="H67" s="23"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="B68" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="C68" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="E68" s="13"/>
+      <c r="F68" s="32" t="s">
+        <v>349</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="H68" s="23" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="B69" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="F69" s="32" t="s">
+        <v>384</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="H69" s="23" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="B70" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F70" s="32" t="s">
+        <v>350</v>
+      </c>
+      <c r="G70" s="7"/>
+      <c r="H70" s="23"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="16" t="s">
+        <v>440</v>
+      </c>
+      <c r="B71" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F71" s="32" t="s">
         <v>351</v>
       </c>
-      <c r="G65" s="7"/>
-      <c r="H65" s="24"/>
-    </row>
-    <row r="66" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="16" t="s">
-        <v>437</v>
-      </c>
-      <c r="B66" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="C66" s="19" t="s">
-        <v>295</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="E66" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F66" s="33" t="s">
+      <c r="G71" s="11"/>
+      <c r="H71" s="22"/>
+    </row>
+    <row r="72" spans="1:8" ht="34.799999999999997">
+      <c r="A72" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="B72" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F72" s="32" t="s">
         <v>351</v>
       </c>
-      <c r="G66" s="7"/>
-      <c r="H66" s="24"/>
-    </row>
-    <row r="67" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="16" t="s">
-        <v>438</v>
-      </c>
-      <c r="B67" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="C67" s="19" t="s">
+      <c r="G72" s="7"/>
+      <c r="H72" s="23"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="16" t="s">
+        <v>442</v>
+      </c>
+      <c r="B73" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F73" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="G73" s="7"/>
+      <c r="H73" s="23"/>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="16" t="s">
+        <v>443</v>
+      </c>
+      <c r="B74" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="C74" s="16"/>
+      <c r="D74" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E74" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F74" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="G74" s="7"/>
+      <c r="H74" s="23"/>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="16" t="s">
+        <v>444</v>
+      </c>
+      <c r="B75" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="C75" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="D67" s="7" t="s">
-        <v>579</v>
-      </c>
-      <c r="E67" s="13"/>
-      <c r="F67" s="33" t="s">
-        <v>351</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="H67" s="24" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A68" s="16" t="s">
-        <v>439</v>
-      </c>
-      <c r="B68" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C68" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D68" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="E68" s="12" t="s">
-        <v>385</v>
-      </c>
-      <c r="F68" s="33" t="s">
-        <v>386</v>
-      </c>
-      <c r="G68" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="H68" s="24" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A69" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="B69" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="C69" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="E69" s="13" t="s">
+      <c r="D75" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="E75" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F75" s="32" t="s">
+        <v>352</v>
+      </c>
+      <c r="G75" s="7"/>
+      <c r="H75" s="23"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="16" t="s">
+        <v>445</v>
+      </c>
+      <c r="B76" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="C76" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E76" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F76" s="32" t="s">
+        <v>352</v>
+      </c>
+      <c r="G76" s="7"/>
+      <c r="H76" s="23"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="16" t="s">
+        <v>446</v>
+      </c>
+      <c r="B77" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="E77" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F77" s="32" t="s">
+        <v>352</v>
+      </c>
+      <c r="G77" s="7"/>
+      <c r="H77" s="23"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="16" t="s">
+        <v>447</v>
+      </c>
+      <c r="B78" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="C78" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="E78" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F78" s="32" t="s">
+        <v>352</v>
+      </c>
+      <c r="G78" s="7"/>
+      <c r="H78" s="23"/>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="16" t="s">
+        <v>448</v>
+      </c>
+      <c r="B79" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C79" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E79" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F79" s="32" t="s">
+        <v>352</v>
+      </c>
+      <c r="G79" s="7"/>
+      <c r="H79" s="23"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="16" t="s">
+        <v>449</v>
+      </c>
+      <c r="B80" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C80" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E80" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F80" s="32" t="s">
+        <v>352</v>
+      </c>
+      <c r="G80" s="7"/>
+      <c r="H80" s="23"/>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="16" t="s">
+        <v>450</v>
+      </c>
+      <c r="B81" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C81" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E81" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F81" s="32" t="s">
+        <v>352</v>
+      </c>
+      <c r="G81" s="7"/>
+      <c r="H81" s="23"/>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="16" t="s">
+        <v>451</v>
+      </c>
+      <c r="B82" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C82" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E82" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F82" s="32" t="s">
+        <v>352</v>
+      </c>
+      <c r="G82" s="7"/>
+      <c r="H82" s="23"/>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="B83" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C83" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="E83" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F83" s="32" t="s">
+        <v>352</v>
+      </c>
+      <c r="G83" s="7"/>
+      <c r="H83" s="23"/>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="16" t="s">
+        <v>453</v>
+      </c>
+      <c r="B84" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="C84" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E84" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F84" s="32" t="s">
+        <v>352</v>
+      </c>
+      <c r="G84" s="7"/>
+      <c r="H84" s="23"/>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="16" t="s">
+        <v>454</v>
+      </c>
+      <c r="B85" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C85" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E85" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F69" s="33" t="s">
+      <c r="F85" s="32" t="s">
         <v>352</v>
       </c>
-      <c r="G69" s="7"/>
-      <c r="H69" s="24"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A70" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="B70" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="C70" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="E70" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="F70" s="33" t="s">
-        <v>353</v>
-      </c>
-      <c r="G70" s="11"/>
-      <c r="H70" s="23"/>
-    </row>
-    <row r="71" spans="1:8" ht="36" x14ac:dyDescent="0.35">
-      <c r="A71" s="16" t="s">
-        <v>442</v>
-      </c>
-      <c r="B71" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="C71" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D71" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="E71" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="F71" s="33" t="s">
-        <v>353</v>
-      </c>
-      <c r="G71" s="7"/>
-      <c r="H71" s="24"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A72" s="16" t="s">
-        <v>443</v>
-      </c>
-      <c r="B72" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="C72" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="E72" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F72" s="33" t="s">
-        <v>353</v>
-      </c>
-      <c r="G72" s="7"/>
-      <c r="H72" s="24"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A73" s="16" t="s">
-        <v>444</v>
-      </c>
-      <c r="B73" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="C73" s="16"/>
-      <c r="D73" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E73" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F73" s="33" t="s">
-        <v>353</v>
-      </c>
-      <c r="G73" s="7"/>
-      <c r="H73" s="24"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A74" s="16" t="s">
-        <v>445</v>
-      </c>
-      <c r="B74" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="C74" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="E74" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F74" s="33" t="s">
-        <v>354</v>
-      </c>
-      <c r="G74" s="7"/>
-      <c r="H74" s="24"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A75" s="16" t="s">
-        <v>446</v>
-      </c>
-      <c r="B75" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="C75" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D75" s="7" t="s">
+      <c r="G85" s="7"/>
+      <c r="H85" s="23"/>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="16" t="s">
+        <v>455</v>
+      </c>
+      <c r="B86" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="C86" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="E86" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F86" s="32" t="s">
+        <v>352</v>
+      </c>
+      <c r="G86" s="7"/>
+      <c r="H86" s="23"/>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="16" t="s">
+        <v>456</v>
+      </c>
+      <c r="B87" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C87" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="E87" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F87" s="32" t="s">
+        <v>352</v>
+      </c>
+      <c r="G87" s="7"/>
+      <c r="H87" s="23"/>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="16" t="s">
+        <v>457</v>
+      </c>
+      <c r="B88" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C88" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="E88" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F88" s="32" t="s">
+        <v>352</v>
+      </c>
+      <c r="G88" s="7"/>
+      <c r="H88" s="23"/>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="16" t="s">
+        <v>458</v>
+      </c>
+      <c r="B89" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C89" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="E89" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F89" s="32" t="s">
+        <v>352</v>
+      </c>
+      <c r="G89" s="7"/>
+      <c r="H89" s="23"/>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="16" t="s">
+        <v>459</v>
+      </c>
+      <c r="B90" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C90" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="E90" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F90" s="32" t="s">
+        <v>352</v>
+      </c>
+      <c r="G90" s="7"/>
+      <c r="H90" s="23"/>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="16" t="s">
+        <v>460</v>
+      </c>
+      <c r="B91" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C91" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="E91" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="E75" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F75" s="33" t="s">
-        <v>354</v>
-      </c>
-      <c r="G75" s="7"/>
-      <c r="H75" s="24"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A76" s="16" t="s">
-        <v>447</v>
-      </c>
-      <c r="B76" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="C76" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="E76" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F76" s="33" t="s">
-        <v>354</v>
-      </c>
-      <c r="G76" s="7"/>
-      <c r="H76" s="24"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A77" s="16" t="s">
-        <v>448</v>
-      </c>
-      <c r="B77" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="C77" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E77" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F77" s="33" t="s">
-        <v>354</v>
-      </c>
-      <c r="G77" s="7"/>
-      <c r="H77" s="24"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A78" s="16" t="s">
-        <v>449</v>
-      </c>
-      <c r="B78" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C78" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="E78" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F78" s="33" t="s">
-        <v>354</v>
-      </c>
-      <c r="G78" s="7"/>
-      <c r="H78" s="24"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A79" s="16" t="s">
-        <v>450</v>
-      </c>
-      <c r="B79" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C79" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="E79" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F79" s="33" t="s">
-        <v>354</v>
-      </c>
-      <c r="G79" s="7"/>
-      <c r="H79" s="24"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A80" s="16" t="s">
-        <v>451</v>
-      </c>
-      <c r="B80" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C80" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="D80" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="E80" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F80" s="33" t="s">
-        <v>354</v>
-      </c>
-      <c r="G80" s="7"/>
-      <c r="H80" s="24"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A81" s="16" t="s">
-        <v>452</v>
-      </c>
-      <c r="B81" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C81" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="E81" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F81" s="33" t="s">
-        <v>354</v>
-      </c>
-      <c r="G81" s="7"/>
-      <c r="H81" s="24"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A82" s="16" t="s">
-        <v>453</v>
-      </c>
-      <c r="B82" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C82" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="E82" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F82" s="33" t="s">
-        <v>354</v>
-      </c>
-      <c r="G82" s="7"/>
-      <c r="H82" s="24"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A83" s="16" t="s">
-        <v>454</v>
-      </c>
-      <c r="B83" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="C83" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="E83" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F83" s="33" t="s">
-        <v>354</v>
-      </c>
-      <c r="G83" s="7"/>
-      <c r="H83" s="24"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A84" s="16" t="s">
-        <v>455</v>
-      </c>
-      <c r="B84" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C84" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="E84" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F84" s="33" t="s">
-        <v>354</v>
-      </c>
-      <c r="G84" s="7"/>
-      <c r="H84" s="24"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A85" s="16" t="s">
-        <v>456</v>
-      </c>
-      <c r="B85" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="C85" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="E85" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F85" s="33" t="s">
-        <v>354</v>
-      </c>
-      <c r="G85" s="7"/>
-      <c r="H85" s="24"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A86" s="16" t="s">
-        <v>457</v>
-      </c>
-      <c r="B86" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C86" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="D86" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="E86" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="F86" s="33" t="s">
-        <v>354</v>
-      </c>
-      <c r="G86" s="7"/>
-      <c r="H86" s="24"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A87" s="16" t="s">
-        <v>458</v>
-      </c>
-      <c r="B87" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C87" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="D87" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="E87" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F87" s="33" t="s">
-        <v>354</v>
-      </c>
-      <c r="G87" s="7"/>
-      <c r="H87" s="24"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A88" s="16" t="s">
-        <v>459</v>
-      </c>
-      <c r="B88" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C88" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="E88" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F88" s="33" t="s">
-        <v>354</v>
-      </c>
-      <c r="G88" s="7"/>
-      <c r="H88" s="24"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A89" s="16" t="s">
-        <v>460</v>
-      </c>
-      <c r="B89" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C89" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D89" s="7" t="s">
+      <c r="F91" s="32" t="s">
+        <v>352</v>
+      </c>
+      <c r="G91" s="7"/>
+      <c r="H91" s="23"/>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="16" t="s">
+        <v>461</v>
+      </c>
+      <c r="B92" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C92" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D92" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="E89" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F89" s="33" t="s">
-        <v>354</v>
-      </c>
-      <c r="G89" s="7"/>
-      <c r="H89" s="24"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A90" s="16" t="s">
-        <v>461</v>
-      </c>
-      <c r="B90" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C90" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="D90" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="E90" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="F90" s="33" t="s">
-        <v>354</v>
-      </c>
-      <c r="G90" s="7"/>
-      <c r="H90" s="24"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A91" s="16" t="s">
-        <v>462</v>
-      </c>
-      <c r="B91" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C91" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E91" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F91" s="33" t="s">
-        <v>354</v>
-      </c>
-      <c r="G91" s="7"/>
-      <c r="H91" s="24"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A92" s="16" t="s">
-        <v>463</v>
-      </c>
-      <c r="B92" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C92" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="E92" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F92" s="33" t="s">
-        <v>354</v>
+      <c r="F92" s="32" t="s">
+        <v>352</v>
       </c>
       <c r="G92" s="7"/>
-      <c r="H92" s="24"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H92" s="23"/>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="16" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E93" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F93" s="33" t="s">
-        <v>354</v>
+      <c r="F93" s="32" t="s">
+        <v>352</v>
       </c>
       <c r="G93" s="7"/>
-      <c r="H93" s="24"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H93" s="23"/>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="16" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E94" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F94" s="33" t="s">
-        <v>354</v>
+      <c r="F94" s="32" t="s">
+        <v>352</v>
       </c>
       <c r="G94" s="7"/>
-      <c r="H94" s="24"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H94" s="23"/>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="16" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E95" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F95" s="33" t="s">
-        <v>354</v>
+      <c r="F95" s="32" t="s">
+        <v>352</v>
       </c>
       <c r="G95" s="7"/>
-      <c r="H95" s="24"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H95" s="23"/>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="16" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E96" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F96" s="33" t="s">
-        <v>354</v>
+      <c r="F96" s="32" t="s">
+        <v>352</v>
       </c>
       <c r="G96" s="7"/>
-      <c r="H96" s="24"/>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H96" s="23"/>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="16" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B97" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E97" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F97" s="33" t="s">
-        <v>354</v>
+      <c r="F97" s="32" t="s">
+        <v>352</v>
       </c>
       <c r="G97" s="7"/>
-      <c r="H97" s="24"/>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H97" s="23"/>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="16" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B98" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E98" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F98" s="33" t="s">
-        <v>354</v>
+      <c r="F98" s="32" t="s">
+        <v>352</v>
       </c>
       <c r="G98" s="7"/>
-      <c r="H98" s="24"/>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H98" s="23"/>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="16" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B99" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E99" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F99" s="33" t="s">
-        <v>354</v>
+      <c r="F99" s="32" t="s">
+        <v>352</v>
       </c>
       <c r="G99" s="7"/>
-      <c r="H99" s="24"/>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H99" s="23"/>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="16" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B100" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E100" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="F100" s="33" t="s">
-        <v>354</v>
+      <c r="F100" s="32" t="s">
+        <v>352</v>
       </c>
       <c r="G100" s="7"/>
-      <c r="H100" s="24"/>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H100" s="23"/>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="16" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B101" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E101" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F101" s="33" t="s">
-        <v>354</v>
+      <c r="F101" s="32" t="s">
+        <v>352</v>
       </c>
       <c r="G101" s="7"/>
-      <c r="H101" s="24"/>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H101" s="23"/>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="16" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B102" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E102" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F102" s="33" t="s">
-        <v>354</v>
+      <c r="F102" s="32" t="s">
+        <v>352</v>
       </c>
       <c r="G102" s="7"/>
-      <c r="H102" s="24"/>
-    </row>
-    <row r="103" spans="1:8" s="3" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H102" s="23"/>
+    </row>
+    <row r="103" spans="1:8" s="3" customFormat="1" ht="27.75" customHeight="1">
       <c r="A103" s="16" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B103" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E103" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F103" s="33" t="s">
-        <v>354</v>
+      <c r="F103" s="32" t="s">
+        <v>352</v>
       </c>
       <c r="G103" s="7"/>
-      <c r="H103" s="24"/>
-    </row>
-    <row r="104" spans="1:8" s="3" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H103" s="23"/>
+    </row>
+    <row r="104" spans="1:8" s="3" customFormat="1" ht="27.75" customHeight="1">
       <c r="A104" s="16" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B104" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E104" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F104" s="33" t="s">
-        <v>354</v>
+      <c r="F104" s="32" t="s">
+        <v>352</v>
       </c>
       <c r="G104" s="12"/>
-      <c r="H104" s="26"/>
-    </row>
-    <row r="105" spans="1:8" s="3" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H104" s="25"/>
+    </row>
+    <row r="105" spans="1:8" s="3" customFormat="1" ht="27.75" customHeight="1">
       <c r="A105" s="16" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E105" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F105" s="33" t="s">
-        <v>354</v>
+      <c r="F105" s="32" t="s">
+        <v>352</v>
       </c>
       <c r="G105" s="12"/>
-      <c r="H105" s="26"/>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H105" s="25"/>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" s="16" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B106" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E106" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F106" s="33" t="s">
-        <v>354</v>
+      <c r="F106" s="32" t="s">
+        <v>352</v>
       </c>
       <c r="G106" s="12"/>
-      <c r="H106" s="26"/>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H106" s="25"/>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" s="16" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B107" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E107" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F107" s="33" t="s">
-        <v>354</v>
+      <c r="F107" s="32" t="s">
+        <v>352</v>
       </c>
       <c r="G107" s="7"/>
-      <c r="H107" s="24"/>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H107" s="23"/>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" s="16" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B108" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E108" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="F108" s="33" t="s">
-        <v>354</v>
+      <c r="F108" s="32" t="s">
+        <v>352</v>
       </c>
       <c r="G108" s="7"/>
-      <c r="H108" s="24"/>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H108" s="23"/>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" s="16" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B109" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E109" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="F109" s="33" t="s">
-        <v>354</v>
+      <c r="F109" s="32" t="s">
+        <v>352</v>
       </c>
       <c r="G109" s="7"/>
-      <c r="H109" s="24"/>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H109" s="23"/>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="B110" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="C110" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="D110" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="E110" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="F110" s="32" t="s">
+        <v>352</v>
+      </c>
+      <c r="G110" s="7"/>
+      <c r="H110" s="23"/>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="16" t="s">
+        <v>480</v>
+      </c>
+      <c r="B111" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C111" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D111" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E111" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="F111" s="32" t="s">
+        <v>352</v>
+      </c>
+      <c r="G111" s="7"/>
+      <c r="H111" s="23"/>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="16" t="s">
         <v>481</v>
       </c>
-      <c r="B110" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="C110" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D110" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="E110" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="F110" s="33" t="s">
-        <v>354</v>
-      </c>
-      <c r="G110" s="7"/>
-      <c r="H110" s="24"/>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A111" s="16" t="s">
-        <v>482</v>
-      </c>
-      <c r="B111" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C111" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D111" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="E111" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="F111" s="33" t="s">
-        <v>354</v>
-      </c>
-      <c r="G111" s="7"/>
-      <c r="H111" s="24"/>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A112" s="16" t="s">
-        <v>483</v>
-      </c>
       <c r="B112" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C112" s="16"/>
       <c r="D112" s="12" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E112" s="12"/>
-      <c r="F112" s="33" t="s">
-        <v>354</v>
+      <c r="F112" s="32" t="s">
+        <v>352</v>
       </c>
       <c r="G112" s="7"/>
-      <c r="H112" s="24"/>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H112" s="23"/>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" s="16" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B113" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E113" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F113" s="33" t="s">
-        <v>354</v>
+      <c r="F113" s="32" t="s">
+        <v>352</v>
       </c>
       <c r="G113" s="7"/>
-      <c r="H113" s="24"/>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H113" s="23"/>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" s="16" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B114" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D114" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E114" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="F114" s="33" t="s">
-        <v>354</v>
+        <v>302</v>
+      </c>
+      <c r="F114" s="32" t="s">
+        <v>352</v>
       </c>
       <c r="G114" s="7"/>
-      <c r="H114" s="24"/>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H114" s="23"/>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" s="16" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B115" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E115" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F115" s="33" t="s">
-        <v>354</v>
+      <c r="F115" s="32" t="s">
+        <v>352</v>
       </c>
       <c r="G115" s="7"/>
-      <c r="H115" s="24"/>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H115" s="23"/>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" s="16" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B116" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E116" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F116" s="33" t="s">
-        <v>354</v>
+      <c r="F116" s="32" t="s">
+        <v>352</v>
       </c>
       <c r="G116" s="7"/>
-      <c r="H116" s="24"/>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H116" s="23"/>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" s="16" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B117" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E117" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F117" s="33" t="s">
-        <v>354</v>
+      <c r="F117" s="32" t="s">
+        <v>352</v>
       </c>
       <c r="G117" s="7"/>
-      <c r="H117" s="24"/>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H117" s="23"/>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118" s="16" t="s">
+        <v>487</v>
+      </c>
+      <c r="B118" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C118" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D118" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="E118" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="F118" s="32" t="s">
+        <v>352</v>
+      </c>
+      <c r="G118" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="H118" s="23" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="16" t="s">
+        <v>488</v>
+      </c>
+      <c r="B119" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C119" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="E119" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F119" s="32">
+        <v>10000</v>
+      </c>
+      <c r="G119" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="H119" s="23" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="16" t="s">
         <v>489</v>
       </c>
-      <c r="B118" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C118" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="D118" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="E118" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="F118" s="33" t="s">
-        <v>354</v>
-      </c>
-      <c r="G118" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="H118" s="24" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A119" s="16" t="s">
-        <v>490</v>
-      </c>
-      <c r="B119" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C119" s="16" t="s">
-        <v>383</v>
-      </c>
-      <c r="D119" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="E119" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="F119" s="33">
-        <v>10000</v>
-      </c>
-      <c r="G119" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="H119" s="24" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A120" s="16" t="s">
-        <v>491</v>
-      </c>
       <c r="B120" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E120" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F120" s="33" t="s">
-        <v>355</v>
+      <c r="F120" s="32" t="s">
+        <v>353</v>
       </c>
       <c r="G120" s="7"/>
-      <c r="H120" s="24"/>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H120" s="23"/>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" s="16" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B121" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E121" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="F121" s="33" t="s">
-        <v>356</v>
+      <c r="F121" s="32" t="s">
+        <v>354</v>
       </c>
       <c r="G121" s="7"/>
-      <c r="H121" s="24"/>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H121" s="23"/>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122" s="16" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B122" s="16" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C122" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="D122" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="D122" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="E122" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F122" s="33" t="s">
-        <v>356</v>
+      <c r="F122" s="32" t="s">
+        <v>354</v>
       </c>
       <c r="G122" s="7"/>
-      <c r="H122" s="24"/>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H122" s="23"/>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123" s="16" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B123" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E123" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F123" s="33" t="s">
-        <v>357</v>
+      <c r="F123" s="32" t="s">
+        <v>355</v>
       </c>
       <c r="G123" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="H123" s="24" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+        <v>392</v>
+      </c>
+      <c r="H123" s="23" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124" s="16" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B124" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E124" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F124" s="33">
+      <c r="F124" s="32">
         <v>5500</v>
       </c>
       <c r="G124" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="H124" s="24" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+        <v>396</v>
+      </c>
+      <c r="H124" s="23" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125" s="16" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B125" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E125" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F125" s="33" t="s">
-        <v>358</v>
+      <c r="F125" s="32" t="s">
+        <v>356</v>
       </c>
       <c r="G125" s="7"/>
-      <c r="H125" s="24"/>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H125" s="23"/>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126" s="16" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B126" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E126" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F126" s="33" t="s">
-        <v>358</v>
+      <c r="F126" s="32" t="s">
+        <v>356</v>
       </c>
       <c r="G126" s="7"/>
-      <c r="H126" s="24"/>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H126" s="23"/>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127" s="16" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B127" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C127" s="16"/>
       <c r="D127" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E127" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="F127" s="33" t="s">
-        <v>358</v>
+      <c r="F127" s="32" t="s">
+        <v>356</v>
       </c>
       <c r="G127" s="7"/>
-      <c r="H127" s="24"/>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H127" s="23"/>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128" s="16" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B128" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E128" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F128" s="33" t="s">
-        <v>358</v>
+      <c r="F128" s="32" t="s">
+        <v>356</v>
       </c>
       <c r="G128" s="7"/>
-      <c r="H128" s="24"/>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H128" s="23"/>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129" s="16" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B129" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E129" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F129" s="33" t="s">
-        <v>358</v>
+      <c r="F129" s="32" t="s">
+        <v>356</v>
       </c>
       <c r="G129" s="7"/>
-      <c r="H129" s="24"/>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H129" s="23"/>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130" s="16" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B130" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E130" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F130" s="33" t="s">
-        <v>358</v>
+      <c r="F130" s="32" t="s">
+        <v>356</v>
       </c>
       <c r="G130" s="7"/>
-      <c r="H130" s="24"/>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H130" s="23"/>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131" s="16" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B131" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E131" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F131" s="33" t="s">
-        <v>358</v>
+      <c r="F131" s="32" t="s">
+        <v>356</v>
       </c>
       <c r="G131" s="7"/>
-      <c r="H131" s="24"/>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H131" s="23"/>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132" s="16" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B132" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C132" s="16"/>
       <c r="D132" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E132" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="F132" s="33" t="s">
-        <v>358</v>
+      <c r="F132" s="32" t="s">
+        <v>356</v>
       </c>
       <c r="G132" s="7"/>
-      <c r="H132" s="24"/>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H132" s="23"/>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133" s="16" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B133" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C133" s="16"/>
       <c r="D133" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E133" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F133" s="33" t="s">
-        <v>358</v>
+      <c r="F133" s="32" t="s">
+        <v>356</v>
       </c>
       <c r="G133" s="7"/>
-      <c r="H133" s="24"/>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H133" s="23"/>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134" s="16" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B134" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E134" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F134" s="33" t="s">
-        <v>359</v>
+      <c r="F134" s="32" t="s">
+        <v>357</v>
       </c>
       <c r="G134" s="7"/>
-      <c r="H134" s="24"/>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H134" s="23"/>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135" s="16" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B135" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C135" s="19" t="s">
-        <v>290</v>
+        <v>295</v>
+      </c>
+      <c r="C135" s="18" t="s">
+        <v>288</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E135" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F135" s="33" t="s">
-        <v>360</v>
+      <c r="F135" s="32" t="s">
+        <v>358</v>
       </c>
       <c r="G135" s="7"/>
-      <c r="H135" s="24"/>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H135" s="23"/>
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136" s="16" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B136" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C136" s="19" t="s">
-        <v>137</v>
+        <v>295</v>
+      </c>
+      <c r="C136" s="18" t="s">
+        <v>136</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E136" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F136" s="33" t="s">
-        <v>360</v>
+      <c r="F136" s="32" t="s">
+        <v>358</v>
       </c>
       <c r="G136" s="7"/>
-      <c r="H136" s="24"/>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H136" s="23"/>
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137" s="16" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B137" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="C137" s="19"/>
+        <v>218</v>
+      </c>
+      <c r="C137" s="18"/>
       <c r="D137" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E137" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F137" s="33" t="s">
-        <v>361</v>
+      <c r="F137" s="32" t="s">
+        <v>359</v>
       </c>
       <c r="G137" s="7"/>
-      <c r="H137" s="24"/>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H137" s="23"/>
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138" s="16" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B138" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C138" s="16"/>
       <c r="D138" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E138" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F138" s="33" t="s">
-        <v>361</v>
+      <c r="F138" s="32" t="s">
+        <v>359</v>
       </c>
       <c r="G138" s="7"/>
-      <c r="H138" s="24"/>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H138" s="23"/>
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139" s="16" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B139" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E139" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F139" s="33" t="s">
-        <v>361</v>
+      <c r="F139" s="32" t="s">
+        <v>359</v>
       </c>
       <c r="G139" s="7"/>
-      <c r="H139" s="24"/>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H139" s="23"/>
+    </row>
+    <row r="140" spans="1:8">
       <c r="A140" s="16" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B140" s="16" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C140" s="16"/>
       <c r="D140" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E140" s="13"/>
-      <c r="F140" s="33" t="s">
-        <v>361</v>
+      <c r="F140" s="32" t="s">
+        <v>359</v>
       </c>
       <c r="G140" s="7"/>
-      <c r="H140" s="24"/>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H140" s="23"/>
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141" s="16" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B141" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C141" s="28" t="s">
-        <v>116</v>
+        <v>295</v>
+      </c>
+      <c r="C141" s="27" t="s">
+        <v>115</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E141" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F141" s="33" t="s">
-        <v>362</v>
+      <c r="F141" s="32" t="s">
+        <v>360</v>
       </c>
       <c r="G141" s="7"/>
-      <c r="H141" s="24"/>
-    </row>
-    <row r="142" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H141" s="23"/>
+    </row>
+    <row r="142" spans="1:8" s="2" customFormat="1">
       <c r="A142" s="16" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B142" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E142" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F142" s="33" t="s">
-        <v>362</v>
+      <c r="F142" s="32" t="s">
+        <v>360</v>
       </c>
       <c r="G142" s="11"/>
-      <c r="H142" s="23"/>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H142" s="22"/>
+    </row>
+    <row r="143" spans="1:8">
       <c r="A143" s="16" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B143" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E143" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="F143" s="33" t="s">
-        <v>362</v>
+      <c r="F143" s="32" t="s">
+        <v>360</v>
       </c>
       <c r="G143" s="7"/>
-      <c r="H143" s="24"/>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H143" s="23"/>
+    </row>
+    <row r="144" spans="1:8">
       <c r="A144" s="16" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B144" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E144" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="F144" s="33" t="s">
-        <v>362</v>
+      <c r="F144" s="32" t="s">
+        <v>360</v>
       </c>
       <c r="G144" s="7"/>
-      <c r="H144" s="24"/>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H144" s="23"/>
+    </row>
+    <row r="145" spans="1:8">
       <c r="A145" s="16" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B145" s="16" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E145" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="F145" s="33" t="s">
-        <v>362</v>
+      <c r="F145" s="32" t="s">
+        <v>360</v>
       </c>
       <c r="G145" s="7"/>
-      <c r="H145" s="24"/>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H145" s="23"/>
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146" s="16" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B146" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E146" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F146" s="33" t="s">
-        <v>362</v>
+      <c r="F146" s="32" t="s">
+        <v>360</v>
       </c>
       <c r="G146" s="7"/>
-      <c r="H146" s="24"/>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H146" s="23"/>
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147" s="16" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B147" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E147" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F147" s="33" t="s">
-        <v>362</v>
+      <c r="F147" s="32" t="s">
+        <v>360</v>
       </c>
       <c r="G147" s="7"/>
-      <c r="H147" s="24"/>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H147" s="23"/>
+    </row>
+    <row r="148" spans="1:8">
       <c r="A148" s="16" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B148" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C148" s="16"/>
       <c r="D148" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E148" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F148" s="33" t="s">
-        <v>362</v>
+      <c r="F148" s="32" t="s">
+        <v>360</v>
       </c>
       <c r="G148" s="7"/>
-      <c r="H148" s="24"/>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H148" s="23"/>
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149" s="16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B149" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E149" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="F149" s="33" t="s">
-        <v>362</v>
+      <c r="F149" s="32" t="s">
+        <v>360</v>
       </c>
       <c r="G149" s="7"/>
-      <c r="H149" s="24"/>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H149" s="23"/>
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150" s="16" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B150" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E150" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F150" s="33" t="s">
-        <v>362</v>
+      <c r="F150" s="32" t="s">
+        <v>360</v>
       </c>
       <c r="G150" s="7"/>
-      <c r="H150" s="24"/>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H150" s="23"/>
+    </row>
+    <row r="151" spans="1:8">
       <c r="A151" s="16" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B151" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C151" s="16"/>
       <c r="D151" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E151" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="F151" s="37" t="s">
-        <v>362</v>
+      <c r="F151" s="35" t="s">
+        <v>360</v>
       </c>
       <c r="G151" s="7"/>
-      <c r="H151" s="24"/>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H151" s="23"/>
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152" s="16" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B152" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E152" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F152" s="33" t="s">
-        <v>362</v>
+      <c r="F152" s="32" t="s">
+        <v>360</v>
       </c>
       <c r="G152" s="7"/>
-      <c r="H152" s="24"/>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H152" s="23"/>
+    </row>
+    <row r="153" spans="1:8">
       <c r="A153" s="16" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B153" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E153" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F153" s="33" t="s">
-        <v>362</v>
+      <c r="F153" s="32" t="s">
+        <v>360</v>
       </c>
       <c r="G153" s="7"/>
-      <c r="H153" s="24"/>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H153" s="23"/>
+    </row>
+    <row r="154" spans="1:8">
       <c r="A154" s="16" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B154" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C154" s="16"/>
       <c r="D154" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E154" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F154" s="33" t="s">
-        <v>362</v>
+      <c r="F154" s="32" t="s">
+        <v>360</v>
       </c>
       <c r="G154" s="7"/>
-      <c r="H154" s="24"/>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H154" s="23"/>
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155" s="16" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B155" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C155" s="16"/>
       <c r="D155" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E155" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F155" s="33" t="s">
-        <v>362</v>
+      <c r="F155" s="32" t="s">
+        <v>360</v>
       </c>
       <c r="G155" s="7"/>
-      <c r="H155" s="24"/>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H155" s="23"/>
+    </row>
+    <row r="156" spans="1:8">
       <c r="A156" s="16" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B156" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C156" s="16"/>
       <c r="D156" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E156" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F156" s="33" t="s">
-        <v>362</v>
+      <c r="F156" s="32" t="s">
+        <v>360</v>
       </c>
       <c r="G156" s="7"/>
-      <c r="H156" s="24"/>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H156" s="23"/>
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157" s="16" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B157" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E157" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F157" s="33" t="s">
-        <v>362</v>
+      <c r="F157" s="32" t="s">
+        <v>360</v>
       </c>
       <c r="G157" s="7"/>
-      <c r="H157" s="24"/>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H157" s="23"/>
+    </row>
+    <row r="158" spans="1:8">
       <c r="A158" s="16" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B158" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E158" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="F158" s="33" t="s">
-        <v>362</v>
+      <c r="F158" s="32" t="s">
+        <v>360</v>
       </c>
       <c r="G158" s="7"/>
-      <c r="H158" s="24"/>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H158" s="23"/>
+    </row>
+    <row r="159" spans="1:8">
       <c r="A159" s="16" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B159" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E159" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="F159" s="33" t="s">
-        <v>362</v>
+      <c r="F159" s="32" t="s">
+        <v>360</v>
       </c>
       <c r="G159" s="7"/>
-      <c r="H159" s="24"/>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H159" s="23"/>
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160" s="16" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B160" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C160" s="16"/>
       <c r="D160" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E160" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F160" s="33" t="s">
-        <v>362</v>
+      <c r="F160" s="32" t="s">
+        <v>360</v>
       </c>
       <c r="G160" s="7"/>
-      <c r="H160" s="24"/>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H160" s="23"/>
+    </row>
+    <row r="161" spans="1:8">
       <c r="A161" s="16" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B161" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D161" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E161" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F161" s="33" t="s">
-        <v>362</v>
+      <c r="F161" s="32" t="s">
+        <v>360</v>
       </c>
       <c r="G161" s="7"/>
-      <c r="H161" s="24"/>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H161" s="23"/>
+    </row>
+    <row r="162" spans="1:8">
       <c r="A162" s="16" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B162" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E162" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F162" s="33" t="s">
-        <v>362</v>
+        <v>588</v>
+      </c>
+      <c r="F162" s="32" t="s">
+        <v>360</v>
       </c>
       <c r="G162" s="7"/>
-      <c r="H162" s="24"/>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H162" s="23"/>
+    </row>
+    <row r="163" spans="1:8">
       <c r="A163" s="16" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B163" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E163" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F163" s="33" t="s">
-        <v>362</v>
+      <c r="F163" s="32" t="s">
+        <v>360</v>
       </c>
       <c r="G163" s="7"/>
-      <c r="H163" s="24"/>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H163" s="23"/>
+    </row>
+    <row r="164" spans="1:8">
       <c r="A164" s="16" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B164" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D164" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E164" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="F164" s="33" t="s">
-        <v>362</v>
+      <c r="F164" s="32" t="s">
+        <v>360</v>
       </c>
       <c r="G164" s="7"/>
-      <c r="H164" s="24"/>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H164" s="23"/>
+    </row>
+    <row r="165" spans="1:8">
       <c r="A165" s="16" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B165" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E165" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F165" s="33" t="s">
-        <v>362</v>
+      <c r="F165" s="32" t="s">
+        <v>360</v>
       </c>
       <c r="G165" s="7"/>
-      <c r="H165" s="24"/>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H165" s="23"/>
+    </row>
+    <row r="166" spans="1:8">
       <c r="A166" s="16" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B166" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C166" s="16"/>
       <c r="D166" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E166" s="13"/>
-      <c r="F166" s="33" t="s">
-        <v>362</v>
+      <c r="F166" s="32" t="s">
+        <v>360</v>
       </c>
       <c r="G166" s="7"/>
-      <c r="H166" s="24"/>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H166" s="23"/>
+    </row>
+    <row r="167" spans="1:8">
       <c r="A167" s="16" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B167" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E167" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="F167" s="33" t="s">
-        <v>362</v>
+      <c r="F167" s="32" t="s">
+        <v>360</v>
       </c>
       <c r="G167" s="7"/>
-      <c r="H167" s="24"/>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H167" s="23"/>
+    </row>
+    <row r="168" spans="1:8">
       <c r="A168" s="16" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B168" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D168" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E168" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F168" s="33" t="s">
-        <v>362</v>
+      <c r="F168" s="32" t="s">
+        <v>360</v>
       </c>
       <c r="G168" s="7"/>
-      <c r="H168" s="24"/>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H168" s="23"/>
+    </row>
+    <row r="169" spans="1:8">
       <c r="A169" s="16" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B169" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D169" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E169" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F169" s="33" t="s">
-        <v>362</v>
+      <c r="F169" s="32" t="s">
+        <v>360</v>
       </c>
       <c r="G169" s="7"/>
-      <c r="H169" s="24"/>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H169" s="23"/>
+    </row>
+    <row r="170" spans="1:8">
       <c r="A170" s="16" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B170" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D170" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E170" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F170" s="33" t="s">
-        <v>362</v>
+      <c r="F170" s="32" t="s">
+        <v>360</v>
       </c>
       <c r="G170" s="7"/>
-      <c r="H170" s="24"/>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H170" s="23"/>
+    </row>
+    <row r="171" spans="1:8">
       <c r="A171" s="16" t="s">
+        <v>540</v>
+      </c>
+      <c r="B171" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C171" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D171" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="E171" s="7"/>
+      <c r="F171" s="32" t="s">
+        <v>360</v>
+      </c>
+      <c r="G171" s="7"/>
+      <c r="H171" s="23"/>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="A172" s="16" t="s">
+        <v>541</v>
+      </c>
+      <c r="B172" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C172" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="D172" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="E172" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F172" s="32" t="s">
+        <v>360</v>
+      </c>
+      <c r="G172" s="7"/>
+      <c r="H172" s="23"/>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173" s="16" t="s">
         <v>542</v>
       </c>
-      <c r="B171" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C171" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="D171" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="E171" s="7"/>
-      <c r="F171" s="33" t="s">
-        <v>362</v>
-      </c>
-      <c r="G171" s="7"/>
-      <c r="H171" s="24"/>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A172" s="16" t="s">
+      <c r="B173" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C173" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="D173" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="E173" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="F173" s="32" t="s">
+        <v>360</v>
+      </c>
+      <c r="G173" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="H173" s="23" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="A174" s="16" t="s">
         <v>543</v>
       </c>
-      <c r="B172" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C172" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D172" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="E172" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="F172" s="33" t="s">
-        <v>362</v>
-      </c>
-      <c r="G172" s="7"/>
-      <c r="H172" s="24"/>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A173" s="16" t="s">
+      <c r="B174" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="C174" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="D174" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="E174" s="13" t="s">
+        <v>589</v>
+      </c>
+      <c r="F174" s="36">
+        <v>5000</v>
+      </c>
+      <c r="G174" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="H174" s="23" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175" s="16" t="s">
         <v>544</v>
       </c>
-      <c r="B173" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C173" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="D173" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="E173" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="F173" s="33" t="s">
-        <v>362</v>
-      </c>
-      <c r="G173" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="H173" s="24" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A174" s="16" t="s">
+      <c r="B175" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C175" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="D175" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="E175" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="F175" s="32" t="s">
+        <v>361</v>
+      </c>
+      <c r="G175" s="7"/>
+      <c r="H175" s="23"/>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="A176" s="16" t="s">
         <v>545</v>
       </c>
-      <c r="B174" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C174" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D174" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="E174" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="F174" s="33" t="s">
-        <v>363</v>
-      </c>
-      <c r="G174" s="7"/>
-      <c r="H174" s="24"/>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A175" s="16" t="s">
-        <v>546</v>
-      </c>
-      <c r="B175" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C175" s="16"/>
-      <c r="D175" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E175" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="F175" s="33" t="s">
-        <v>364</v>
-      </c>
-      <c r="G175" s="7"/>
-      <c r="H175" s="24"/>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A176" s="16" t="s">
-        <v>547</v>
-      </c>
       <c r="B176" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C176" s="16"/>
       <c r="D176" s="7" t="s">
         <v>89</v>
       </c>
       <c r="E176" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F176" s="32" t="s">
+        <v>362</v>
+      </c>
+      <c r="G176" s="7"/>
+      <c r="H176" s="23"/>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="A177" s="16" t="s">
+        <v>546</v>
+      </c>
+      <c r="B177" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C177" s="16"/>
+      <c r="D177" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E177" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F176" s="33" t="s">
+      <c r="F177" s="32" t="s">
+        <v>362</v>
+      </c>
+      <c r="G177" s="7"/>
+      <c r="H177" s="23"/>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="A178" s="16" t="s">
+        <v>547</v>
+      </c>
+      <c r="B178" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C178" s="16"/>
+      <c r="D178" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E178" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F178" s="32" t="s">
+        <v>362</v>
+      </c>
+      <c r="G178" s="7"/>
+      <c r="H178" s="23"/>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="A179" s="16" t="s">
+        <v>548</v>
+      </c>
+      <c r="B179" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C179" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D179" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="E179" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="F179" s="32" t="s">
+        <v>362</v>
+      </c>
+      <c r="G179" s="7"/>
+      <c r="H179" s="23"/>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="A180" s="16" t="s">
+        <v>549</v>
+      </c>
+      <c r="B180" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C180" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D180" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="E180" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F180" s="32" t="s">
+        <v>362</v>
+      </c>
+      <c r="G180" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="H180" s="23" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="A181" s="16" t="s">
+        <v>550</v>
+      </c>
+      <c r="B181" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C181" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D181" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="E181" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F181" s="32" t="s">
+        <v>363</v>
+      </c>
+      <c r="G181" s="7"/>
+      <c r="H181" s="23"/>
+    </row>
+    <row r="182" spans="1:8">
+      <c r="A182" s="16" t="s">
+        <v>551</v>
+      </c>
+      <c r="B182" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C182" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="D182" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E182" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F182" s="32" t="s">
         <v>364</v>
       </c>
-      <c r="G176" s="7"/>
-      <c r="H176" s="24"/>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A177" s="16" t="s">
-        <v>548</v>
-      </c>
-      <c r="B177" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C177" s="16"/>
-      <c r="D177" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="E177" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="F177" s="33" t="s">
-        <v>364</v>
-      </c>
-      <c r="G177" s="7"/>
-      <c r="H177" s="24"/>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A178" s="16" t="s">
-        <v>549</v>
-      </c>
-      <c r="B178" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C178" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="D178" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="E178" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="F178" s="33" t="s">
-        <v>364</v>
-      </c>
-      <c r="G178" s="7"/>
-      <c r="H178" s="24"/>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A179" s="16" t="s">
-        <v>550</v>
-      </c>
-      <c r="B179" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C179" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="D179" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="E179" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="F179" s="33" t="s">
-        <v>364</v>
-      </c>
-      <c r="G179" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="H179" s="24" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A180" s="16" t="s">
-        <v>551</v>
-      </c>
-      <c r="B180" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C180" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D180" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="E180" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F180" s="33" t="s">
+      <c r="G182" s="7"/>
+      <c r="H182" s="23"/>
+    </row>
+    <row r="183" spans="1:8">
+      <c r="A183" s="16" t="s">
+        <v>552</v>
+      </c>
+      <c r="B183" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C183" s="16"/>
+      <c r="D183" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E183" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F183" s="32" t="s">
         <v>365</v>
       </c>
-      <c r="G180" s="7"/>
-      <c r="H180" s="24"/>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A181" s="16" t="s">
-        <v>552</v>
-      </c>
-      <c r="B181" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C181" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D181" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="E181" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F181" s="33" t="s">
-        <v>366</v>
-      </c>
-      <c r="G181" s="7"/>
-      <c r="H181" s="24"/>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A182" s="16" t="s">
+      <c r="G183" s="7"/>
+      <c r="H183" s="23"/>
+    </row>
+    <row r="184" spans="1:8">
+      <c r="A184" s="16" t="s">
         <v>553</v>
       </c>
-      <c r="B182" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C182" s="16"/>
-      <c r="D182" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E182" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F182" s="33" t="s">
-        <v>367</v>
-      </c>
-      <c r="G182" s="7"/>
-      <c r="H182" s="24"/>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A183" s="16" t="s">
-        <v>554</v>
-      </c>
-      <c r="B183" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C183" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="D183" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="E183" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F183" s="33" t="s">
-        <v>367</v>
-      </c>
-      <c r="G183" s="7"/>
-      <c r="H183" s="24"/>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A184" s="16" t="s">
-        <v>555</v>
-      </c>
       <c r="B184" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="D184" s="7" t="s">
         <v>213</v>
       </c>
       <c r="E184" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F184" s="32" t="s">
+        <v>365</v>
+      </c>
+      <c r="G184" s="7"/>
+      <c r="H184" s="23"/>
+    </row>
+    <row r="185" spans="1:8">
+      <c r="A185" s="16" t="s">
+        <v>554</v>
+      </c>
+      <c r="B185" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C185" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D185" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="E185" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F184" s="33" t="s">
-        <v>367</v>
-      </c>
-      <c r="G184" s="7"/>
-      <c r="H184" s="24"/>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A185" s="16" t="s">
-        <v>556</v>
-      </c>
-      <c r="B185" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C185" s="16"/>
-      <c r="D185" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E185" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F185" s="33" t="s">
-        <v>367</v>
+      <c r="F185" s="32" t="s">
+        <v>365</v>
       </c>
       <c r="G185" s="7"/>
-      <c r="H185" s="24"/>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H185" s="23"/>
+    </row>
+    <row r="186" spans="1:8">
       <c r="A186" s="16" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B186" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C186" s="16"/>
       <c r="D186" s="7" t="s">
         <v>86</v>
       </c>
       <c r="E186" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F186" s="32" t="s">
+        <v>365</v>
+      </c>
+      <c r="G186" s="7"/>
+      <c r="H186" s="23"/>
+    </row>
+    <row r="187" spans="1:8">
+      <c r="A187" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="B187" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C187" s="16"/>
+      <c r="D187" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E187" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="F186" s="33" t="s">
+      <c r="F187" s="32" t="s">
+        <v>365</v>
+      </c>
+      <c r="G187" s="7"/>
+      <c r="H187" s="23"/>
+    </row>
+    <row r="188" spans="1:8">
+      <c r="A188" s="16" t="s">
+        <v>557</v>
+      </c>
+      <c r="B188" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C188" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D188" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="E188" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="F188" s="32" t="s">
+        <v>365</v>
+      </c>
+      <c r="G188" s="7"/>
+      <c r="H188" s="23"/>
+    </row>
+    <row r="189" spans="1:8">
+      <c r="A189" s="16" t="s">
+        <v>558</v>
+      </c>
+      <c r="B189" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C189" s="27"/>
+      <c r="D189" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E189" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F189" s="32" t="s">
+        <v>366</v>
+      </c>
+      <c r="G189" s="7"/>
+      <c r="H189" s="23"/>
+    </row>
+    <row r="190" spans="1:8">
+      <c r="A190" s="16" t="s">
+        <v>559</v>
+      </c>
+      <c r="B190" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C190" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D190" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="E190" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F190" s="32" t="s">
         <v>367</v>
       </c>
-      <c r="G186" s="7"/>
-      <c r="H186" s="24"/>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A187" s="16" t="s">
-        <v>558</v>
-      </c>
-      <c r="B187" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C187" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D187" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="E187" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="F187" s="33" t="s">
+      <c r="G190" s="7"/>
+      <c r="H190" s="23"/>
+    </row>
+    <row r="191" spans="1:8">
+      <c r="A191" s="16" t="s">
+        <v>560</v>
+      </c>
+      <c r="B191" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C191" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D191" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E191" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F191" s="32" t="s">
         <v>367</v>
       </c>
-      <c r="G187" s="7"/>
-      <c r="H187" s="24"/>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A188" s="16" t="s">
-        <v>559</v>
-      </c>
-      <c r="B188" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C188" s="28"/>
-      <c r="D188" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="E188" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F188" s="33" t="s">
-        <v>368</v>
-      </c>
-      <c r="G188" s="7"/>
-      <c r="H188" s="24"/>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A189" s="16" t="s">
-        <v>560</v>
-      </c>
-      <c r="B189" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C189" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="D189" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="E189" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F189" s="33" t="s">
-        <v>369</v>
-      </c>
-      <c r="G189" s="7"/>
-      <c r="H189" s="24"/>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A190" s="16" t="s">
+      <c r="G191" s="7"/>
+      <c r="H191" s="23"/>
+    </row>
+    <row r="192" spans="1:8">
+      <c r="A192" s="16" t="s">
         <v>561</v>
       </c>
-      <c r="B190" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C190" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D190" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="E190" s="13" t="s">
+      <c r="B192" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C192" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="D192" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="E192" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F192" s="32" t="s">
+        <v>367</v>
+      </c>
+      <c r="G192" s="7"/>
+      <c r="H192" s="23"/>
+    </row>
+    <row r="193" spans="1:8">
+      <c r="A193" s="16" t="s">
+        <v>562</v>
+      </c>
+      <c r="B193" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C193" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="D193" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E193" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F190" s="33" t="s">
-        <v>369</v>
-      </c>
-      <c r="G190" s="7"/>
-      <c r="H190" s="24"/>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A191" s="16" t="s">
-        <v>562</v>
-      </c>
-      <c r="B191" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C191" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="D191" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E191" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="F191" s="33" t="s">
-        <v>369</v>
-      </c>
-      <c r="G191" s="7"/>
-      <c r="H191" s="24"/>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A192" s="16" t="s">
+      <c r="F193" s="32" t="s">
+        <v>367</v>
+      </c>
+      <c r="G193" s="7"/>
+      <c r="H193" s="23"/>
+    </row>
+    <row r="194" spans="1:8">
+      <c r="A194" s="16" t="s">
         <v>563</v>
       </c>
-      <c r="B192" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C192" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="D192" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="E192" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F192" s="33" t="s">
-        <v>369</v>
-      </c>
-      <c r="G192" s="7"/>
-      <c r="H192" s="24"/>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A193" s="16" t="s">
-        <v>564</v>
-      </c>
-      <c r="B193" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C193" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="D193" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="E193" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F193" s="33" t="s">
-        <v>369</v>
-      </c>
-      <c r="G193" s="7"/>
-      <c r="H193" s="24"/>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A194" s="16" t="s">
-        <v>565</v>
-      </c>
       <c r="B194" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="D194" s="7" t="s">
-        <v>195</v>
+        <v>151</v>
       </c>
       <c r="E194" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F194" s="33" t="s">
-        <v>370</v>
+      <c r="F194" s="32" t="s">
+        <v>367</v>
       </c>
       <c r="G194" s="7"/>
-      <c r="H194" s="24"/>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H194" s="23"/>
+    </row>
+    <row r="195" spans="1:8">
       <c r="A195" s="16" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B195" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="D195" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E195" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F195" s="33">
+      <c r="F195" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="G195" s="7"/>
+      <c r="H195" s="23"/>
+    </row>
+    <row r="196" spans="1:8">
+      <c r="A196" s="16" t="s">
+        <v>565</v>
+      </c>
+      <c r="B196" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C196" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D196" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="E196" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F196" s="32">
         <v>1011</v>
       </c>
-      <c r="G195" s="7"/>
-      <c r="H195" s="24"/>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A196" s="16" t="s">
+      <c r="G196" s="7"/>
+      <c r="H196" s="23"/>
+    </row>
+    <row r="197" spans="1:8">
+      <c r="A197" s="16" t="s">
+        <v>566</v>
+      </c>
+      <c r="B197" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C197" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="D197" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="E197" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F197" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="G197" s="7"/>
+      <c r="H197" s="23"/>
+    </row>
+    <row r="198" spans="1:8">
+      <c r="A198" s="16" t="s">
         <v>567</v>
       </c>
-      <c r="B196" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C196" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D196" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="E196" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="F196" s="33" t="s">
-        <v>371</v>
-      </c>
-      <c r="G196" s="7"/>
-      <c r="H196" s="24"/>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A197" s="16" t="s">
-        <v>568</v>
-      </c>
-      <c r="B197" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C197" s="16"/>
-      <c r="D197" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E197" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F197" s="33" t="s">
-        <v>371</v>
-      </c>
-      <c r="G197" s="7"/>
-      <c r="H197" s="24"/>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A198" s="16" t="s">
-        <v>569</v>
-      </c>
       <c r="B198" s="16" t="s">
-        <v>228</v>
+        <v>295</v>
       </c>
       <c r="C198" s="16"/>
       <c r="D198" s="7" t="s">
-        <v>229</v>
+        <v>84</v>
       </c>
       <c r="E198" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F198" s="33" t="s">
-        <v>371</v>
+      <c r="F198" s="32" t="s">
+        <v>369</v>
       </c>
       <c r="G198" s="7"/>
-      <c r="H198" s="24"/>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H198" s="23"/>
+    </row>
+    <row r="199" spans="1:8">
       <c r="A199" s="16" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B199" s="16" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C199" s="16"/>
       <c r="D199" s="7" t="s">
@@ -6709,568 +6744,162 @@
       <c r="E199" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F199" s="33" t="s">
-        <v>371</v>
+      <c r="F199" s="32" t="s">
+        <v>369</v>
       </c>
       <c r="G199" s="7"/>
-      <c r="H199" s="24"/>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H199" s="23"/>
+    </row>
+    <row r="200" spans="1:8">
       <c r="A200" s="16" t="s">
+        <v>569</v>
+      </c>
+      <c r="B200" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="C200" s="16"/>
+      <c r="D200" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="E200" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F200" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="G200" s="7"/>
+      <c r="H200" s="23"/>
+    </row>
+    <row r="201" spans="1:8">
+      <c r="A201" s="16" t="s">
+        <v>570</v>
+      </c>
+      <c r="B201" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C201" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="D201" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E201" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F201" s="32" t="s">
+        <v>370</v>
+      </c>
+      <c r="G201" s="7"/>
+      <c r="H201" s="23"/>
+    </row>
+    <row r="202" spans="1:8">
+      <c r="A202" s="16" t="s">
         <v>571</v>
       </c>
-      <c r="B200" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C200" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="D200" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="E200" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="F200" s="33" t="s">
-        <v>372</v>
-      </c>
-      <c r="G200" s="7"/>
-      <c r="H200" s="24"/>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A201" s="16" t="s">
-        <v>572</v>
-      </c>
-      <c r="B201" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C201" s="16"/>
-      <c r="D201" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E201" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F201" s="33" t="s">
-        <v>372</v>
-      </c>
-      <c r="G201" s="7"/>
-      <c r="H201" s="24"/>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A202" s="16" t="s">
-        <v>573</v>
-      </c>
       <c r="B202" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C202" s="28"/>
+        <v>295</v>
+      </c>
+      <c r="C202" s="16"/>
       <c r="D202" s="7" t="s">
         <v>105</v>
       </c>
       <c r="E202" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F202" s="32" t="s">
+        <v>370</v>
+      </c>
+      <c r="G202" s="7"/>
+      <c r="H202" s="23"/>
+    </row>
+    <row r="203" spans="1:8">
+      <c r="A203" s="16" t="s">
+        <v>572</v>
+      </c>
+      <c r="B203" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C203" s="27"/>
+      <c r="D203" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E203" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="F202" s="33" t="s">
+      <c r="F203" s="32" t="s">
+        <v>371</v>
+      </c>
+      <c r="G203" s="7"/>
+      <c r="H203" s="23"/>
+    </row>
+    <row r="204" spans="1:8">
+      <c r="A204" s="16" t="s">
+        <v>573</v>
+      </c>
+      <c r="B204" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C204" s="16"/>
+      <c r="D204" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E204" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F204" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="G204" s="7"/>
+      <c r="H204" s="23"/>
+    </row>
+    <row r="205" spans="1:8">
+      <c r="A205" s="16" t="s">
+        <v>579</v>
+      </c>
+      <c r="B205" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C205" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="D205" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="E205" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="F205" s="32">
+        <v>500</v>
+      </c>
+      <c r="G205" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="H205" s="23" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
+      <c r="A206" s="16" t="s">
+        <v>586</v>
+      </c>
+      <c r="B206" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C206" s="16"/>
+      <c r="D206" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="E206" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F206" s="32" t="s">
         <v>373</v>
       </c>
-      <c r="G202" s="7"/>
-      <c r="H202" s="24"/>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A203" s="16" t="s">
-        <v>574</v>
-      </c>
-      <c r="B203" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C203" s="16"/>
-      <c r="D203" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E203" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="F203" s="33" t="s">
-        <v>374</v>
-      </c>
-      <c r="G203" s="7"/>
-      <c r="H203" s="24"/>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A204" s="16" t="s">
-        <v>575</v>
-      </c>
-      <c r="B204" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C204" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="D204" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="E204" s="13" t="s">
-        <v>392</v>
-      </c>
-      <c r="F204" s="33">
-        <v>500</v>
-      </c>
-      <c r="G204" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="H204" s="24" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A205" s="16" t="s">
-        <v>581</v>
-      </c>
-      <c r="B205" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C205" s="16"/>
-      <c r="D205" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="E205" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F205" s="33" t="s">
-        <v>375</v>
-      </c>
-      <c r="G205" s="7"/>
-      <c r="H205" s="24"/>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B206" s="17"/>
-      <c r="C206" s="17"/>
-      <c r="D206" s="21"/>
-      <c r="E206" s="22"/>
-      <c r="F206" s="38"/>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B207" s="17"/>
-      <c r="C207" s="17"/>
-      <c r="D207" s="21"/>
-      <c r="E207" s="22"/>
-      <c r="F207" s="38"/>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B208" s="16"/>
-      <c r="C208" s="17"/>
-      <c r="D208" s="21"/>
-      <c r="E208" s="22"/>
-      <c r="F208" s="38"/>
-    </row>
-    <row r="209" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F209" s="34"/>
-    </row>
-    <row r="210" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F210" s="34"/>
-    </row>
-    <row r="211" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F211" s="34"/>
-    </row>
-    <row r="212" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F212" s="34"/>
-    </row>
-    <row r="213" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F213" s="34"/>
-    </row>
-    <row r="214" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F214" s="34"/>
-    </row>
-    <row r="215" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F215" s="34"/>
-    </row>
-    <row r="216" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F216" s="34"/>
-    </row>
-    <row r="217" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F217" s="34"/>
-    </row>
-    <row r="218" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F218" s="34"/>
-    </row>
-    <row r="219" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F219" s="34"/>
-    </row>
-    <row r="220" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F220" s="34"/>
-    </row>
-    <row r="221" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F221" s="34"/>
-    </row>
-    <row r="222" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F222" s="34"/>
-    </row>
-    <row r="223" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F223" s="34"/>
-    </row>
-    <row r="224" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F224" s="34"/>
-    </row>
-    <row r="225" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F225" s="34"/>
-    </row>
-    <row r="226" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F226" s="34"/>
-    </row>
-    <row r="227" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F227" s="34"/>
-    </row>
-    <row r="228" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F228" s="34"/>
-    </row>
-    <row r="229" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F229" s="34"/>
-    </row>
-    <row r="230" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F230" s="34"/>
-    </row>
-    <row r="231" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F231" s="34"/>
-    </row>
-    <row r="232" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F232" s="34"/>
-    </row>
-    <row r="233" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F233" s="34"/>
-    </row>
-    <row r="234" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F234" s="34"/>
-    </row>
-    <row r="235" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F235" s="34"/>
-    </row>
-    <row r="236" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F236" s="34"/>
-    </row>
-    <row r="237" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F237" s="34"/>
-    </row>
-    <row r="238" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F238" s="34"/>
-    </row>
-    <row r="239" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F239" s="34"/>
-    </row>
-    <row r="240" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F240" s="34"/>
-    </row>
-    <row r="241" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F241" s="34"/>
-    </row>
-    <row r="242" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F242" s="34"/>
-    </row>
-    <row r="243" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F243" s="34"/>
-    </row>
-    <row r="244" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F244" s="34"/>
-    </row>
-    <row r="245" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F245" s="34"/>
-    </row>
-    <row r="246" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F246" s="34"/>
-    </row>
-    <row r="247" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F247" s="34"/>
-    </row>
-    <row r="248" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F248" s="34"/>
-    </row>
-    <row r="249" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F249" s="34"/>
-    </row>
-    <row r="250" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F250" s="34"/>
-    </row>
-    <row r="251" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F251" s="34"/>
-    </row>
-    <row r="252" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F252" s="34"/>
-    </row>
-    <row r="253" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F253" s="34"/>
-    </row>
-    <row r="254" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F254" s="34"/>
-    </row>
-    <row r="255" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F255" s="34"/>
-    </row>
-    <row r="256" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F256" s="34"/>
-    </row>
-    <row r="257" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F257" s="34"/>
-    </row>
-    <row r="258" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F258" s="34"/>
-    </row>
-    <row r="259" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F259" s="34"/>
-    </row>
-    <row r="260" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F260" s="34"/>
-    </row>
-    <row r="261" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F261" s="34"/>
-    </row>
-    <row r="262" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F262" s="34"/>
-    </row>
-    <row r="263" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F263" s="34"/>
-    </row>
-    <row r="264" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F264" s="34"/>
-    </row>
-    <row r="265" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F265" s="34"/>
-    </row>
-    <row r="266" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F266" s="34"/>
-    </row>
-    <row r="267" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F267" s="34"/>
-    </row>
-    <row r="268" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F268" s="34"/>
-    </row>
-    <row r="269" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F269" s="34"/>
-    </row>
-    <row r="270" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F270" s="34"/>
-    </row>
-    <row r="271" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F271" s="34"/>
-    </row>
-    <row r="272" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F272" s="34"/>
-    </row>
-    <row r="273" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F273" s="34"/>
-    </row>
-    <row r="274" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F274" s="34"/>
-    </row>
-    <row r="275" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F275" s="34"/>
-    </row>
-    <row r="276" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F276" s="34"/>
-    </row>
-    <row r="277" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F277" s="34"/>
-    </row>
-    <row r="278" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F278" s="34"/>
-    </row>
-    <row r="279" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F279" s="34"/>
-    </row>
-    <row r="280" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F280" s="34"/>
-    </row>
-    <row r="281" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F281" s="34"/>
-    </row>
-    <row r="282" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F282" s="34"/>
-    </row>
-    <row r="283" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F283" s="34"/>
-    </row>
-    <row r="284" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F284" s="34"/>
-    </row>
-    <row r="285" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F285" s="34"/>
-    </row>
-    <row r="286" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F286" s="34"/>
-    </row>
-    <row r="287" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F287" s="34"/>
-    </row>
-    <row r="288" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F288" s="34"/>
-    </row>
-    <row r="289" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F289" s="34"/>
-    </row>
-    <row r="290" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F290" s="34"/>
-    </row>
-    <row r="291" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F291" s="34"/>
-    </row>
-    <row r="292" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F292" s="34"/>
-    </row>
-    <row r="293" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F293" s="34"/>
-    </row>
-    <row r="294" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F294" s="34"/>
-    </row>
-    <row r="295" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F295" s="34"/>
-    </row>
-    <row r="296" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F296" s="34"/>
-    </row>
-    <row r="297" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F297" s="34"/>
-    </row>
-    <row r="298" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F298" s="34"/>
-    </row>
-    <row r="299" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F299" s="34"/>
-    </row>
-    <row r="300" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F300" s="34"/>
-    </row>
-    <row r="301" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F301" s="34"/>
-    </row>
-    <row r="302" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F302" s="34"/>
-    </row>
-    <row r="303" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F303" s="34"/>
-    </row>
-    <row r="304" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F304" s="34"/>
-    </row>
-    <row r="305" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F305" s="34"/>
-    </row>
-    <row r="306" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F306" s="34"/>
-    </row>
-    <row r="307" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F307" s="34"/>
-    </row>
-    <row r="308" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F308" s="34"/>
-    </row>
-    <row r="309" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F309" s="34"/>
-    </row>
-    <row r="310" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F310" s="34"/>
-    </row>
-    <row r="311" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F311" s="34"/>
-    </row>
-    <row r="312" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F312" s="34"/>
-    </row>
-    <row r="313" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F313" s="34"/>
-    </row>
-    <row r="314" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F314" s="34"/>
-    </row>
-    <row r="315" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F315" s="34"/>
-    </row>
-    <row r="316" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F316" s="34"/>
-    </row>
-    <row r="317" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F317" s="34"/>
-    </row>
-    <row r="318" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F318" s="34"/>
-    </row>
-    <row r="319" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F319" s="34"/>
-    </row>
-    <row r="320" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F320" s="34"/>
-    </row>
-    <row r="321" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F321" s="34"/>
-    </row>
-    <row r="322" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F322" s="34"/>
-    </row>
-    <row r="323" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F323" s="34"/>
-    </row>
-    <row r="324" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F324" s="34"/>
-    </row>
-    <row r="325" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F325" s="34"/>
-    </row>
-    <row r="326" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F326" s="34"/>
-    </row>
-    <row r="327" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F327" s="34"/>
-    </row>
-    <row r="328" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F328" s="34"/>
-    </row>
-    <row r="329" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F329" s="34"/>
-    </row>
-    <row r="330" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F330" s="34"/>
-    </row>
-    <row r="331" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F331" s="34"/>
-    </row>
-    <row r="332" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F332" s="34"/>
-    </row>
-    <row r="333" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F333" s="34"/>
-    </row>
-    <row r="334" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F334" s="34"/>
-    </row>
-    <row r="335" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F335" s="34"/>
-    </row>
-    <row r="336" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F336" s="34"/>
-    </row>
-    <row r="337" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F337" s="34"/>
-    </row>
-    <row r="338" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F338" s="34"/>
-    </row>
-    <row r="339" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F339" s="34"/>
-    </row>
-    <row r="340" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F340" s="34"/>
-    </row>
-    <row r="341" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F341" s="34"/>
-    </row>
-    <row r="342" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F342" s="34"/>
-    </row>
-    <row r="343" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F343" s="34"/>
+      <c r="G206" s="7"/>
+      <c r="H206" s="23"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:H208">
+  <autoFilter ref="B1:H206">
     <sortState ref="B2:H207">
       <sortCondition descending="1" ref="F1:F201"/>
     </sortState>
@@ -7288,13 +6917,16 @@
   <dimension ref="E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C9" sqref="C9:I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E1" s="32"/>
+    <row r="1" spans="5:5">
+      <c r="E1" s="31"/>
     </row>
   </sheetData>
   <sortState ref="F11:G17">
@@ -7310,7 +6942,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
